--- a/data/output/vv_core_cleaned.xlsx
+++ b/data/output/vv_core_cleaned.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLIMATE;COOLING;DISTURBANCE;HOLOCENE;LIMNOLOGY;PANAMA;PHYTOLITHS;POLLEN;VEGETATION</t>
+          <t>CLIMATE; COOLING; DISTURBANCE; HOLOCENE; LIMNOLOGY; PANAMA; PHYTOLITHS; POLLEN; VEGETATION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LAST GLACIAL MAXIMUM;POLLEN RECORD;RAIN-FOREST;ENVIRONMENTAL HISTORY;NORTH-AMERICA;AMAZON BASIN;QUATERNARY;FLUCTUATIONS;VEGETATION;CLIMATE</t>
+          <t>LAST GLACIAL MAXIMUM; POLLEN RECORD; RAIN-FOREST; ENVIRONMENTAL HISTORY; NORTH-AMERICA; AMAZON BASIN; QUATERNARY; FLUCTUATIONS; VEGETATION; CLIMATE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Costa Rica;tropical;pollen analysis;human impact;prehistory;archaeology;Upper Holocene;rain forest;charcoal</t>
+          <t>Costa Rica; tropical; pollen analysis; human impact; prehistory; archaeology; Upper Holocene; rain forest; charcoal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SELVA-BIOLOGICAL-STATION;POLLEN REPRESENTATION;MAIZE CULTIVATION;MAYA CIVILIZATION;AGE CALIBRATION;RADIOCARBON AGE;PANAMA;AGRICULTURE;CLIMATE;RECORD</t>
+          <t>SELVA-BIOLOGICAL-STATION; POLLEN REPRESENTATION; MAIZE CULTIVATION; MAYA CIVILIZATION; AGE CALIBRATION; RADIOCARBON AGE; PANAMA; AGRICULTURE; CLIMATE; RECORD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forest ecosystem;recovering forest;plantation;primary forest;soil CO2 efflux;soil temperature</t>
+          <t>forest ecosystem; recovering forest; plantation; primary forest; soil CO2 efflux; soil temperature</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TEMPORAL VARIATIONS;CARBON-DIOXIDE;RESPIRATION;CHAMBER;FLUXES;TEMPERATURE;DEPENDENCE</t>
+          <t>TEMPORAL VARIATIONS; CARBON-DIOXIDE; RESPIRATION; CHAMBER; FLUXES; TEMPERATURE; DEPENDENCE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>deforestation;forest degradation;forest disturbance;forest regrowth;secondary forest;selective logging;timber harvesting</t>
+          <t>deforestation; forest degradation; forest disturbance; forest regrowth; secondary forest; selective logging; timber harvesting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USE/LAND COVER CHANGES;LAND-USE CHANGE;DEFORESTATION;AMAZON;CONSERVATION;GIS;FRAGMENTATION;GLOBALIZATION;TRANSITION;PATTERNS</t>
+          <t>USE/LAND COVER CHANGES; LAND-USE CHANGE; DEFORESTATION; AMAZON; CONSERVATION; GIS; FRAGMENTATION; GLOBALIZATION; TRANSITION; PATTERNS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>archaeology;disturbance;maize;paleoecology;pollen analysis;prehistoric agriculture;tropical rain forest;Zea mays</t>
+          <t>archaeology; disturbance; maize; paleoecology; pollen analysis; prehistoric agriculture; tropical rain forest; Zea mays</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MAIZE CULTIVATION;FOREST CLEARANCE;AGE CALIBRATION;RADIOCARBON AGE;SEDIMENTS;RAIN;LOWLANDS;HISTORY;FIRES;TREES</t>
+          <t>MAIZE CULTIVATION; FOREST CLEARANCE; AGE CALIBRATION; RADIOCARBON AGE; SEDIMENTS; RAIN; LOWLANDS; HISTORY; FIRES; TREES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>state space models;forest disturbance mapping;near real-time monitoring;Sentinel-2;CUSUM</t>
+          <t>state space models; forest disturbance mapping; near real-time monitoring; Sentinel-2; CUSUM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CLOUD SHADOW DETECTION;LANDSAT;DISTURBANCE;AREA;DEFORESTATION;ACCURACY;TRENDS</t>
+          <t>CLOUD SHADOW DETECTION; LANDSAT; DISTURBANCE; AREA; DEFORESTATION; ACCURACY; TRENDS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Soil seed bank;Forest disturbance;Fragmentation;Edge effect;Atlantic rainforest</t>
+          <t>Soil seed bank; Forest disturbance; Fragmentation; Edge effect; Atlantic rainforest</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST;RAIN-FOREST;AREA INDEX;FRAGMENTATION;RECOVERY;PATTERNS;EDGES</t>
+          <t>TROPICAL FOREST; RAIN-FOREST; AREA INDEX; FRAGMENTATION; RECOVERY; PATTERNS; EDGES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Forest disturbance;forest succession;shrub legumes;species introduction</t>
+          <t>Forest disturbance; forest succession; shrub legumes; species introduction</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>suspended sediment yields;spreadsheet analysis;storm hydrograph;tropical forest disturbance</t>
+          <t>suspended sediment yields; spreadsheet analysis; storm hydrograph; tropical forest disturbance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -840,12 +840,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic programming;image sequence analysis;monitoring;pattern classification;time series</t>
+          <t>Dynamic programming; image sequence analysis; monitoring; pattern classification; time series</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;VEGETATION INDEXES;SERIES ANALYSIS;MODIS;IMAGERY;CLASSIFICATION;AGRICULTURE;RECOGNITION;EXPANSION;BRAZIL</t>
+          <t>FOREST DISTURBANCE; VEGETATION INDEXES; SERIES ANALYSIS; MODIS; IMAGERY; CLASSIFICATION; AGRICULTURE; RECOGNITION; EXPANSION; BRAZIL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>disturbance;forest ecology;old-growth;succession;tropical rainforest</t>
+          <t>disturbance; forest ecology; old-growth; succession; tropical rainforest</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;AMAZON;FIRES</t>
+          <t>FOREST DISTURBANCE; AMAZON; FIRES</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -916,12 +916,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>disturbance agents;disturbance regimes;forest degradation;Landsat time series;land use;LandTrendr;tropical dry forests</t>
+          <t>disturbance agents; disturbance regimes; forest degradation; Landsat time series; land use; LandTrendr; tropical dry forests</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LANDSAT TIME-SERIES;TEMPORAL PATTERNS;ESTIMATING AREA;DEFORESTATION;VEGETATION;DYNAMICS;CONSERVATION;DEGRADATION;ACCURACY;SEGMENTATION</t>
+          <t>LANDSAT TIME-SERIES; TEMPORAL PATTERNS; ESTIMATING AREA; DEFORESTATION; VEGETATION; DYNAMICS; CONSERVATION; DEGRADATION; ACCURACY; SEGMENTATION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -957,7 +957,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CANOPY GAPS;STEM VOLUME;SPECIES COMPOSITION;SIZE-DISTRIBUTION;RAIN-FOREST;BASAL AREA;REAL-TIME;BIOMASS;DISTURBANCE;DYNAMICS</t>
+          <t>CANOPY GAPS; STEM VOLUME; SPECIES COMPOSITION; SIZE-DISTRIBUTION; RAIN-FOREST; BASAL AREA; REAL-TIME; BIOMASS; DISTURBANCE; DYNAMICS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Deforestation;MODIS;Time series;Parallel processing;Cloud computing</t>
+          <t>Deforestation; MODIS; Time series; Parallel processing; Cloud computing</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LAND-COVER;DEFORESTATION;EMISSIONS;NDVI;TIME;PRECIPITATION;VEGETATION;PERIOD;MEXICO;FIRES</t>
+          <t>LAND-COVER; DEFORESTATION; EMISSIONS; NDVI; TIME; PRECIPITATION; VEGETATION; PERIOD; MEXICO; FIRES</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Allee effects;Biomass allocation;Density dependence;Liana;Soil chemistry</t>
+          <t>Allee effects; Biomass allocation; Density dependence; Liana; Soil chemistry</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CELASTRUS-ORBICULATUS;BIOMASS ALLOCATION;DENSITY-DEPENDENCE;EUONYMUS-FORTUNEI;PHASE-CHANGE;GROWTH;CARBON;COMMUNITIES;DIVERSITY;CHEMISTRY</t>
+          <t>CELASTRUS-ORBICULATUS; BIOMASS ALLOCATION; DENSITY-DEPENDENCE; EUONYMUS-FORTUNEI; PHASE-CHANGE; GROWTH; CARBON; COMMUNITIES; DIVERSITY; CHEMISTRY</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Early Holocene;Northwestern Colombia;Medellin-Porce River;Human-environment interaction;Horticulture</t>
+          <t>Early Holocene; Northwestern Colombia; Medellin-Porce River; Human-environment interaction; Horticulture</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GAP-PHASE REGENERATION;NET PRIMARY PRODUCTION;LOGGED FORESTS;BRAZILIAN AMAZON;RAIN-FOREST;CARBON;CANOPY;FLUXES;SATELLITE;GROWTH</t>
+          <t>GAP-PHASE REGENERATION; NET PRIMARY PRODUCTION; LOGGED FORESTS; BRAZILIAN AMAZON; RAIN-FOREST; CARBON; CANOPY; FLUXES; SATELLITE; GROWTH</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brazilian Amazon;Forest degradation;Selective logging;Remote sensing;Landsat</t>
+          <t>Brazilian Amazon; Forest degradation; Selective logging; Remote sensing; Landsat</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FRACTION IMAGES;LOGGED FORESTS</t>
+          <t>FRACTION IMAGES; LOGGED FORESTS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>afforestation;continuous change detection and classification;forest disturbance;forest succession;Landsat time series;LiDAR</t>
+          <t>afforestation; continuous change detection and classification; forest disturbance; forest succession; Landsat time series; LiDAR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST;FARMLAND ABANDONMENT;ACCURACY ASSESSMENT;COVER;DISTURBANCE;CLASSIFICATION;HABITATS;DYNAMICS;PATTERNS;HISTORY</t>
+          <t>TROPICAL FOREST; FARMLAND ABANDONMENT; ACCURACY ASSESSMENT; COVER; DISTURBANCE; CLASSIFICATION; HABITATS; DYNAMICS; PATTERNS; HISTORY</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Landsat;Lidar;Tree canopy cover;Tree height;Time-series;Change detection;Forest monitoring</t>
+          <t>Landsat; Lidar; Tree canopy cover; Tree height; Time-series; Change detection; Forest monitoring</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FOREST COVER;ESTIMATING AREA;TROPICAL DEFORESTATION;SATELLITE DATA;MODIS;LIDAR;HEIGHT;CLASSIFICATIONS;VALIDATION;RESOLUTION</t>
+          <t>FOREST COVER; ESTIMATING AREA; TROPICAL DEFORESTATION; SATELLITE DATA; MODIS; LIDAR; HEIGHT; CLASSIFICATIONS; VALIDATION; RESOLUTION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MODIS;Landsat;time series;Vegetation Continuous Fields;change detection;forest;land cover</t>
+          <t>MODIS; Landsat; time series; Vegetation Continuous Fields; change detection; forest; land cover</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LAND-COVER;CARBON EMISSIONS;TROPICAL DEFORESTATION;DISTURBANCE;MODIS;RESOLUTION;MAPS;ACCURACY;REGIONS;TRENDS</t>
+          <t>LAND-COVER; CARBON EMISSIONS; TROPICAL DEFORESTATION; DISTURBANCE; MODIS; RESOLUTION; MAPS; ACCURACY; REGIONS; TRENDS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Forest aboveground biomass;Forest inventory data;ICESat/GLAS;Multisource remotely sensed data;Stochastic models;Southern China</t>
+          <t>Forest aboveground biomass; Forest inventory data; ICESat/GLAS; Multisource remotely sensed data; Stochastic models; Southern China</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TREE CANOPY COVER;LANDSAT TM DATA;NATIONAL FOREST;VERTICAL STRUCTURE;SPACEBORNE LIDAR;CARBON STORAGE;CLIMATE-CHANGE;GLAS;TRANSFORMATION;AIRBORNE</t>
+          <t>TREE CANOPY COVER; LANDSAT TM DATA; NATIONAL FOREST; VERTICAL STRUCTURE; SPACEBORNE LIDAR; CARBON STORAGE; CLIMATE-CHANGE; GLAS; TRANSFORMATION; AIRBORNE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chiapas;climate change;climatic envelopes;conservation;disturbance;diversity;species distribution modelling</t>
+          <t>Chiapas; climate change; climatic envelopes; conservation; disturbance; diversity; species distribution modelling</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CLIMATE-CHANGE;TREE DIVERSITY;GLOBAL 200;CHIAPAS;HIGHLANDS;FRAGMENTATION;DISTRIBUTIONS;BIODIVERSITY;RARE;DISTURBANCE</t>
+          <t>CLIMATE-CHANGE; TREE DIVERSITY; GLOBAL 200; CHIAPAS; HIGHLANDS; FRAGMENTATION; DISTRIBUTIONS; BIODIVERSITY; RARE; DISTURBANCE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tropical forests;disturbance;mortality;carbon</t>
+          <t>Tropical forests; disturbance; mortality; carbon</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LARGE BLOWDOWNS;MOIST</t>
+          <t>LARGE BLOWDOWNS; MOIST</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>treefall gap;sap flux;plant physiology;tropical ecohydrology</t>
+          <t>treefall gap; sap flux; plant physiology; tropical ecohydrology</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WATER-USE EFFICIENCY;XYLEM SAP FLOW;CANOPY TREES;TRANSPIRATION;GROWTH;MORTALITY;DYNAMICS;WET;VEGETATION;IMPACTS</t>
+          <t>WATER-USE EFFICIENCY; XYLEM SAP FLOW; CANOPY TREES; TRANSPIRATION; GROWTH; MORTALITY; DYNAMICS; WET; VEGETATION; IMPACTS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1465,7 +1465,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CARIBBEAN HURRICANES;TROPICAL CYCLONES;CLIMATE-CHANGE;DISTURBANCE;IMPACTS;GROWTH;CARBON;LOUISIANA;DYNAMICS;IMAGES</t>
+          <t>CARIBBEAN HURRICANES; TROPICAL CYCLONES; CLIMATE-CHANGE; DISTURBANCE; IMPACTS; GROWTH; CARBON; LOUISIANA; DYNAMICS; IMAGES</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1501,7 +1501,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPECIES COMPOSITION;DYNAMICS</t>
+          <t>SPECIES COMPOSITION; DYNAMICS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sub-tropical forests;multispectral imagery;synthetic aperture radar;random forest;variable importance</t>
+          <t>sub-tropical forests; multispectral imagery; synthetic aperture radar; random forest; variable importance</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SYNTHETIC-APERTURE RADAR;GAP REGENERATION;DYNAMICS;ROLES;COVER;COAST;NDVI;AREA</t>
+          <t>SYNTHETIC-APERTURE RADAR; GAP REGENERATION; DYNAMICS; ROLES; COVER; COAST; NDVI; AREA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Southeast Asia;Borneo;rapid assessment;plant functional group;plant morphology;establishment perference;forest disturbance;Macaranga;Mallotus</t>
+          <t>Southeast Asia; Borneo; rapid assessment; plant functional group; plant morphology; establishment perference; forest disturbance; Macaranga; Mallotus</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;SEED-SIZE;DIPTEROCARP FOREST;EAST KALIMANTAN;TREE;MACARANGA;EUPHORBIACEAE;SEEDLINGS;FIRE;SUCCESSION</t>
+          <t>RAIN-FOREST; SEED-SIZE; DIPTEROCARP FOREST; EAST KALIMANTAN; TREE; MACARANGA; EUPHORBIACEAE; SEEDLINGS; FIRE; SUCCESSION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1608,12 +1608,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>forest disturbance;tropical cyclone;canopy cover;vegetation index;forest dynamics</t>
+          <t>forest disturbance; tropical cyclone; canopy cover; vegetation index; forest dynamics</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>REMOTE-SENSING ASSESSMENT;LEAF-AREA INDEX;TROPICAL FORESTS;HURRICANE HUGO;SUBTROPICAL WET;WATER-CONTENT;RAIN-FORESTS;CARBON SINK;TREE DAMAGE;LANDSAT</t>
+          <t>REMOTE-SENSING ASSESSMENT; LEAF-AREA INDEX; TROPICAL FORESTS; HURRICANE HUGO; SUBTROPICAL WET; WATER-CONTENT; RAIN-FORESTS; CARBON SINK; TREE DAMAGE; LANDSAT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RADIOMETRIC NORMALIZATION;LOGGED FORESTS;COVER CHANGE;DEFORESTATION;IMAGES;MANAGEMENT;FRONTIER;IMPACTS;MODEL;STATE</t>
+          <t>RADIOMETRIC NORMALIZATION; LOGGED FORESTS; COVER CHANGE; DEFORESTATION; IMAGES; MANAGEMENT; FRONTIER; IMPACTS; MODEL; STATE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1685,7 +1685,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COARSE WOODY DEBRIS;ABOVEGROUND BIOMASS;ORGANIC-CARBON;RAIN-FORESTS;STOCKS</t>
+          <t>COARSE WOODY DEBRIS; ABOVEGROUND BIOMASS; ORGANIC-CARBON; RAIN-FORESTS; STOCKS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forest degradation;Landsat-8;selective logging;Sentinel-2;unmanned aerial vehicle</t>
+          <t>forest degradation; Landsat-8; selective logging; Sentinel-2; unmanned aerial vehicle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>REDUCED-IMPACT;CANOPY DAMAGE;DEFORESTATION;RECOVERY;CLASSIFICATION;DEGRADATION;COVER</t>
+          <t>REDUCED-IMPACT; CANOPY DAMAGE; DEFORESTATION; RECOVERY; CLASSIFICATION; DEGRADATION; COVER</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>forest degradation;tropical forest;community forestry;Yucatan Peninsula</t>
+          <t>forest degradation; tropical forest; community forestry; Yucatan Peninsula</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>YUCATAN PENINSULA;PROTECTED AREAS;DEFORESTATION;DEGRADATION;MANAGEMENT;EMISSIONS;ACCURACY</t>
+          <t>YUCATAN PENINSULA; PROTECTED AREAS; DEFORESTATION; DEGRADATION; MANAGEMENT; EMISSIONS; ACCURACY</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Land-use change;Pasture;Secondary forest;Soil hydrology;Infiltrability;Saturated hydraulic conductivity</t>
+          <t>Land-use change; Pasture; Secondary forest; Soil hydrology; Infiltrability; Saturated hydraulic conductivity</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SATURATED HYDRAULIC CONDUCTIVITY;LAND-USE CHANGES;PHYSICAL-PROPERTIES;TROPICAL FOREST;CATTLE;DEFORESTATION;INFILTRATION;COMMUNITIES;CATCHMENT;AMAZONIA</t>
+          <t>SATURATED HYDRAULIC CONDUCTIVITY; LAND-USE CHANGES; PHYSICAL-PROPERTIES; TROPICAL FOREST; CATTLE; DEFORESTATION; INFILTRATION; COMMUNITIES; CATCHMENT; AMAZONIA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Forest disturbance;CBM-CFS3;Carbon modeling;MRV;Mexico;REDD</t>
+          <t>Forest disturbance; CBM-CFS3; Carbon modeling; MRV; Mexico; REDD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FOREST COVER;LANDSCAPE-DYNAMICS;REGRESSION TREES;CARBON EMISSIONS;TROPICAL FOREST;CLIMATE-CHANGE;BOREAL FOREST;MODIS;SATELLITE;BIOMASS</t>
+          <t>FOREST COVER; LANDSCAPE-DYNAMICS; REGRESSION TREES; CARBON EMISSIONS; TROPICAL FOREST; CLIMATE-CHANGE; BOREAL FOREST; MODIS; SATELLITE; BIOMASS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1880,12 +1880,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ALI;ASTER;deforestation;forest degradation;forest disturbance;Landsat;logging;MODIS;REDD;satellite monitoring;SPOT;UNFCCC</t>
+          <t>ALI; ASTER; deforestation; forest degradation; forest disturbance; Landsat; logging; MODIS; REDD; satellite monitoring; SPOT; UNFCCC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CANOPY DAMAGE;LOGGED FORESTS;TREE COVER;VEGETATION;RECOVERY;DISCRIMINATION;FEEDBACKS;SOILS;LEAF</t>
+          <t>CANOPY DAMAGE; LOGGED FORESTS; TREE COVER; VEGETATION; RECOVERY; DISCRIMINATION; FEEDBACKS; SOILS; LEAF</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Landsat;Time series;Secondary vegetation;Regrowth dynamics;Image compositing;Tropical forests</t>
+          <t>Landsat; Time series; Secondary vegetation; Regrowth dynamics; Image compositing; Tropical forests</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;USE HISTORY;TM;GLOBALIZATION;OPPORTUNITIES;ABANDONMENT;TRACKING;PASTURES;IMAGERY;CARBON</t>
+          <t>FOREST DISTURBANCE; USE HISTORY; TM; GLOBALIZATION; OPPORTUNITIES; ABANDONMENT; TRACKING; PASTURES; IMAGERY; CARBON</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forest disturbance;tropical storms;land use/land cover change;forest type;landscape setting;environmental history;interdisciplinary research;Puerto Rico</t>
+          <t>forest disturbance; tropical storms; land use/land cover change; forest type; landscape setting; environmental history; interdisciplinary research; Puerto Rico</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WET FOREST;RAIN-FOREST;HURRICANE;RESILIENCE;RECOVERY;IMPACT</t>
+          <t>WET FOREST; RAIN-FOREST; HURRICANE; RESILIENCE; RECOVERY; IMPACT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>symbiotic nitrogen fixation;free-living nitrogen fixation;forest fires;molybdenum (Mo);phosphorus (P);tropical forests;secondary forests</t>
+          <t>symbiotic nitrogen fixation; free-living nitrogen fixation; forest fires; molybdenum (Mo); phosphorus (P); tropical forests; secondary forests</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FORESTS;N-2 FIXATION;LEAF-LITTER;N FIXATION;SOIL;TREE;LIMITATION;MOLYBDENUM;PHOSPHORUS;BIOMASS</t>
+          <t>TROPICAL RAIN-FORESTS; N-2 FIXATION; LEAF-LITTER; N FIXATION; SOIL; TREE; LIMITATION; MOLYBDENUM; PHOSPHORUS; BIOMASS</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tropical forest;forest disturbance;forest age;vegetation type;old growth;terra firme;varzea;cerrado;cerradao;igapo;change detection;image cubes;WBDI;deforestation</t>
+          <t>tropical forest; forest disturbance; forest age; vegetation type; old growth; terra firme; varzea; cerrado; cerradao; igapo; change detection; image cubes; WBDI; deforestation</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>THEMATIC MAPPER DATA;BRAZILIAN AMAZON;TROPICAL FOREST;ABOVEGROUND BIOMASS;RADIOMETRIC NORMALIZATION;SUCCESSIONAL STAGE;CARBON;RONDONIA;CLASSIFICATION;REGROWTH</t>
+          <t>THEMATIC MAPPER DATA; BRAZILIAN AMAZON; TROPICAL FOREST; ABOVEGROUND BIOMASS; RADIOMETRIC NORMALIZATION; SUCCESSIONAL STAGE; CARBON; RONDONIA; CLASSIFICATION; REGROWTH</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aboveground live biomass;Tropical forests;Atlantic Forest;Land use;Forest succession</t>
+          <t>Aboveground live biomass; Tropical forests; Atlantic Forest; Land use; Forest succession</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;RAIN-FOREST;TROPICAL FORESTS;CARBON;AMAZON;FRAGMENTATION;DENSITY;IMPACT;LIANAS;GROWTH</t>
+          <t>ABOVEGROUND BIOMASS; RAIN-FOREST; TROPICAL FORESTS; CARBON; AMAZON; FRAGMENTATION; DENSITY; IMPACT; LIANAS; GROWTH</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Forest disturbance;Melastomataceae;Large gaps;Araceae;Tree fall</t>
+          <t>Forest disturbance; Melastomataceae; Large gaps; Araceae; Tree fall</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;PIONEER TREES;CATASTROPHIC WINDTHROW;PHYSIOLOGICAL DORMANCY;DISTRIBUTION PATTERNS;STANDING VEGETATION;TREEFALL PITS;SOIL;GAP;GERMINATION</t>
+          <t>TROPICAL RAIN-FOREST; PIONEER TREES; CATASTROPHIC WINDTHROW; PHYSIOLOGICAL DORMANCY; DISTRIBUTION PATTERNS; STANDING VEGETATION; TREEFALL PITS; SOIL; GAP; GERMINATION</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2160,12 +2160,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>diversity;epiphytes;indicator species;liverworts;mosses</t>
+          <t>diversity; epiphytes; indicator species; liverworts; mosses</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>COMMUNITY COMPOSITION;SPECIES RICHNESS;RAIN-FOREST;OAK FORESTS;ASSEMBLAGES;EPIPHYTES;DIVERSITY;SUBMONTANE;KEY</t>
+          <t>COMMUNITY COMPOSITION; SPECIES RICHNESS; RAIN-FOREST; OAK FORESTS; ASSEMBLAGES; EPIPHYTES; DIVERSITY; SUBMONTANE; KEY</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bryophyte diversity;Drought tolerance;Canopy cover;Habitat change;Liverworts;Mosses;Tropical forest</t>
+          <t>Bryophyte diversity; Drought tolerance; Canopy cover; Habitat change; Liverworts; Mosses; Tropical forest</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MONTANE FOREST;DIVERSITY;CONSERVATION;BIODIVERSITY;PLANTATIONS;COMMUNITIES;INTENSITY;EPIPHYTES;RESPONSES;SYSTEMS</t>
+          <t>MONTANE FOREST; DIVERSITY; CONSERVATION; BIODIVERSITY; PLANTATIONS; COMMUNITIES; INTENSITY; EPIPHYTES; RESPONSES; SYSTEMS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nearreal-time;CCDC;Time series;Tropics;Deforestation;MODIS;VIIRS;Accuracy assessment</t>
+          <t>Nearreal-time; CCDC; Time series; Tropics; Deforestation; MODIS; VIIRS; Accuracy assessment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LANDSAT;DEFORESTATION;COVER;SERIES;TERRA;AREA</t>
+          <t>LANDSAT; DEFORESTATION; COVER; SERIES; TERRA; AREA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WOOD DENSITY;TROPICAL FORESTS;AIRBORNE LIDAR;CARBON;PATTERNS;DROUGHT;SCALE;DISTURBANCE;ECOSYSTEMS;INTENSITY</t>
+          <t>WOOD DENSITY; TROPICAL FORESTS; AIRBORNE LIDAR; CARBON; PATTERNS; DROUGHT; SCALE; DISTURBANCE; ECOSYSTEMS; INTENSITY</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>balsam fir;boreal forest disturbance regimes;canopy composition;canopy gaps;canopy turnover limes;cedar;gap characteristics along a successional gradient;gap size distributions;gap makers and gap fillers;regeneration of trees and forest;spruce budworm-caused gaps;trembling aspen</t>
+          <t>balsam fir; boreal forest disturbance regimes; canopy composition; canopy gaps; canopy turnover limes; cedar; gap characteristics along a successional gradient; gap size distributions; gap makers and gap fillers; regeneration of trees and forest; spruce budworm-caused gaps; trembling aspen</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SPRUCE BUDWORM OUTBREAKS;NORTHEASTERN UNITED-STATES;BALSAM FIR FORESTS;SUB-ALPINE;PHASE REGENERATION;NORTHWESTERN QUEBEC;CONIFEROUS FORESTS;HARDWOOD FORESTS;TROPICAL FOREST;NORTH-AMERICA</t>
+          <t>SPRUCE BUDWORM OUTBREAKS; NORTHEASTERN UNITED-STATES; BALSAM FIR FORESTS; SUB-ALPINE; PHASE REGENERATION; NORTHWESTERN QUEBEC; CONIFEROUS FORESTS; HARDWOOD FORESTS; TROPICAL FOREST; NORTH-AMERICA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Canopy access;Prototype development;Amazon forest;French Guiana</t>
+          <t>Canopy access; Prototype development; Amazon forest; French Guiana</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>lianas;temperature difference;thermal infrared;remote sensing;unmanned aerial vehicle system;tropical dry forest</t>
+          <t>lianas; temperature difference; thermal infrared; remote sensing; unmanned aerial vehicle system; tropical dry forest</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST;TREE REGENERATION;GROWTH;ABUNDANCE;INFESTATION;MORTALITY;PATTERNS;DROUGHT;IMPACT;PLANTS</t>
+          <t>TROPICAL FOREST; TREE REGENERATION; GROWTH; ABUNDANCE; INFESTATION; MORTALITY; PATTERNS; DROUGHT; IMPACT; PLANTS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C content;Soil depth;Degraded forest;Intact forest;Plantation;Semi-deciduous forest;Moist evergreen forest</t>
+          <t>C content; Soil depth; Degraded forest; Intact forest; Plantation; Semi-deciduous forest; Moist evergreen forest</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MIXED-SPECIES PLANTATIONS;LAND-USE CHANGE;ORGANIC-CARBON;STORAGE;STOCKS;BIOMASS;POOLS;CHRONOSEQUENCE;MANAGEMENT;EUCALYPTUS</t>
+          <t>MIXED-SPECIES PLANTATIONS; LAND-USE CHANGE; ORGANIC-CARBON; STORAGE; STOCKS; BIOMASS; POOLS; CHRONOSEQUENCE; MANAGEMENT; EUCALYPTUS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>airborne LiDAR;Amazon forest;aboveground carbon;canopy height;forest disturbance</t>
+          <t>airborne LiDAR; Amazon forest; aboveground carbon; canopy height; forest disturbance</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;AMAZON;DROUGHT;SENSITIVITY;DEGRADATION;MORTALITY;DIEBACK;FIRES;DEFORESTATION;VARIABILITY</t>
+          <t>ABOVEGROUND BIOMASS; AMAZON; DROUGHT; SENSITIVITY; DEGRADATION; MORTALITY; DIEBACK; FIRES; DEFORESTATION; VARIABILITY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carbon cyde;Deforestation;Forest degradation;Amazon;Tropical ecology</t>
+          <t>Carbon cyde; Deforestation; Forest degradation; Amazon; Tropical ecology</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2545,7 +2545,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NET PRIMARY PRODUCTIVITY;WOOD SPECIFIC-GRAVITY;ECOSYSTEM SERVICES;NYUNGWE-FOREST;LIFE-HISTORY;RAIN-FORESTS;ALTITUDINAL GRADIENTS;ELEVATIONAL TRANSECT;ABOVEGROUND BIOMASS;SPECIES COMPOSITION</t>
+          <t>NET PRIMARY PRODUCTIVITY; WOOD SPECIFIC-GRAVITY; ECOSYSTEM SERVICES; NYUNGWE-FOREST; LIFE-HISTORY; RAIN-FORESTS; ALTITUDINAL GRADIENTS; ELEVATIONAL TRANSECT; ABOVEGROUND BIOMASS; SPECIES COMPOSITION</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2581,7 +2581,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CO-BENEFITS;SPECIES RICHNESS;BIOMASS;AMAZON;BIRDS;REDD;DEFORESTATION;DIVERSITY;EMISSIONS;DOMINANCE</t>
+          <t>CO-BENEFITS; SPECIES RICHNESS; BIOMASS; AMAZON; BIRDS; REDD; DEFORESTATION; DIVERSITY; EMISSIONS; DOMINANCE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>disturbance;photosynthesis;Pinus taeda;sapflux</t>
+          <t>disturbance; photosynthesis; Pinus taeda; sapflux</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SAP FLUX;FOREST DISTURBANCE;SOUTHERN;DYNAMICS;FUNGUS;GROWTH;CARBON;FLOW;INOCULATION;ATTACK</t>
+          <t>SAP FLUX; FOREST DISTURBANCE; SOUTHERN; DYNAMICS; FUNGUS; GROWTH; CARBON; FLOW; INOCULATION; ATTACK</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>forest degradation;forest disturbance;forest fires;secondary forest;soil nutrient pools;organic litter;root litter;root mass;tropical forest;savannization</t>
+          <t>forest degradation; forest disturbance; forest fires; secondary forest; soil nutrient pools; organic litter; root litter; root mass; tropical forest; savannization</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ECOSYSTEMS;PARAMETERS;DYNAMICS;LITTER;FIRE</t>
+          <t>ECOSYSTEMS; PARAMETERS; DYNAMICS; LITTER; FIRE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cat Ba National Park;community traits;plantations;primary and secondary forests;taxonomic diversity</t>
+          <t>Cat Ba National Park; community traits; plantations; primary and secondary forests; taxonomic diversity</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SEED DISPERSAL;SCARABAEIDAE;COMMUNITIES;COLEOPTERA;LAND;GENUS;FRAGMENTATION;CONSERVATION</t>
+          <t>SEED DISPERSAL; SCARABAEIDAE; COMMUNITIES; COLEOPTERA; LAND; GENUS; FRAGMENTATION; CONSERVATION</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>convergence;forest dynamics;LTER;succession;tree damage;tree mortality;wind disturbance</t>
+          <t>convergence; forest dynamics; LTER; succession; tree damage; tree mortality; wind disturbance</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TREE REGENERATION;TROPICAL FOREST;DAMAGE;DISTURBANCE;VEGETATION;MICROSITE;MORTALITY;RECOVERY;DYNAMICS;PATTERNS</t>
+          <t>TREE REGENERATION; TROPICAL FOREST; DAMAGE; DISTURBANCE; VEGETATION; MICROSITE; MORTALITY; RECOVERY; DYNAMICS; PATTERNS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ensemble classification;Forest degradation;LandTrendr;Trajectory analyses;Tropical dry forests;Random Forests</t>
+          <t>Ensemble classification; Forest degradation; LandTrendr; Trajectory analyses; Tropical dry forests; Random Forests</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DETECTING TRENDS;ESTIMATING AREA;GRAN-CHACO;DEFORESTATION;VEGETATION;ACCURACY;DEGRADATION;LANDTRENDR;CLIMATE;MAP</t>
+          <t>DETECTING TRENDS; ESTIMATING AREA; GRAN-CHACO; DEFORESTATION; VEGETATION; ACCURACY; DEGRADATION; LANDTRENDR; CLIMATE; MAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Land cover change;Land surface temperature;Landsat time series;Remote sensing</t>
+          <t>Land cover change; Land surface temperature; Landsat time series; Remote sensing</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>COVER CHANGE;FOREST DISTURBANCE;DETECTING TRENDS;DRY FOREST;VEGETATION;MEXICO;ACCURACY;PATTERNS;YUCATAN;SUMMER</t>
+          <t>COVER CHANGE; FOREST DISTURBANCE; DETECTING TRENDS; DRY FOREST; VEGETATION; MEXICO; ACCURACY; PATTERNS; YUCATAN; SUMMER</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2855,7 +2855,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ACCURACY ASSESSMENT;CARBON-CYCLE;LANDSAT TM;DEFORESTATION;CLASSIFICATION;TEMPERATURES;ECOSYSTEMS;AEROSOL;SINKS;INDEX</t>
+          <t>ACCURACY ASSESSMENT; CARBON-CYCLE; LANDSAT TM; DEFORESTATION; CLASSIFICATION; TEMPERATURES; ECOSYSTEMS; AEROSOL; SINKS; INDEX</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2890,12 +2890,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chronic disturbance;disturbance gradient;forest degradation;woody species richness;seasonally dry tropical forest;selective logging;structural complexity;Tumbesian region</t>
+          <t>chronic disturbance; disturbance gradient; forest degradation; woody species richness; seasonally dry tropical forest; selective logging; structural complexity; Tumbesian region</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SPECIES COMPOSITION;DECIDUOUS FOREST;DIVERSITY;REGENERATION;PRODUCTIVITY;COMMUNITIES;ATTRIBUTES;PATTERNS;GRADIENT;GROWTH</t>
+          <t>SPECIES COMPOSITION; DECIDUOUS FOREST; DIVERSITY; REGENERATION; PRODUCTIVITY; COMMUNITIES; ATTRIBUTES; PATTERNS; GRADIENT; GROWTH</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>flowering;fruiting;rainforest;ENSO (El Nino Southern Oscillation);forest disturbance;woody vines</t>
+          <t>flowering; fruiting; rainforest; ENSO (El Nino Southern Oscillation); forest disturbance; woody vines</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AMAZONIAN FOREST FRAGMENTS;BARRO-COLORADO ISLAND;LONG-TERM CHANGES;FRUIT-SET;TREE REPRODUCTION;PLANT PHENOLOGY;GLOBAL PATTERNS;ELEVATED CO2;LAND-USE;EL-NINO</t>
+          <t>AMAZONIAN FOREST FRAGMENTS; BARRO-COLORADO ISLAND; LONG-TERM CHANGES; FRUIT-SET; TREE REPRODUCTION; PLANT PHENOLOGY; GLOBAL PATTERNS; ELEVATED CO2; LAND-USE; EL-NINO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2970,12 +2970,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Climate extremes;forest disturbance;forest fragmentation;species composition;species distribution;phenology</t>
+          <t>Climate extremes; forest disturbance; forest fragmentation; species composition; species distribution; phenology</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DECIDUOUS FOREST;SPATIAL-PATTERNS;EXTINCTION RISK;PLANT PHENOLOGY;FUTURE CLIMATE;SEA-LEVEL;TREE;BIODIVERSITY;VEGETATION;DYNAMICS</t>
+          <t>DECIDUOUS FOREST; SPATIAL-PATTERNS; EXTINCTION RISK; PLANT PHENOLOGY; FUTURE CLIMATE; SEA-LEVEL; TREE; BIODIVERSITY; VEGETATION; DYNAMICS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3010,12 +3010,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Deforestation;degradation;time series;Google Earth Engine;tropical forest</t>
+          <t>Deforestation; degradation; time series; Google Earth Engine; tropical forest</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RUBBER HEVEA-BRASILIENSIS;MAINLAND SOUTHEAST-ASIA;ESTIMATING AREA;CLOUD SHADOW;ACCURACY;CLASSIFICATION;ACQUISITIONS;PLANTATIONS;PERFORMANCE;MOUNTAINS</t>
+          <t>RUBBER HEVEA-BRASILIENSIS; MAINLAND SOUTHEAST-ASIA; ESTIMATING AREA; CLOUD SHADOW; ACCURACY; CLASSIFICATION; ACQUISITIONS; PLANTATIONS; PERFORMANCE; MOUNTAINS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3050,12 +3050,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brazil;degradation;forest disturbance;Grey Level Co-occurrence Matrix (GLCM);optical;random forest;reduced-impact logging;satellite;synthetic aperture radar;tropical forest</t>
+          <t>Brazil; degradation; forest disturbance; Grey Level Co-occurrence Matrix (GLCM); optical; random forest; reduced-impact logging; satellite; synthetic aperture radar; tropical forest</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TIME-SERIES;FOREST;DEFORESTATION;IMPACTS;BIODIVERSITY;DISTURBANCE;SATELLITE</t>
+          <t>TIME-SERIES; FOREST; DEFORESTATION; IMPACTS; BIODIVERSITY; DISTURBANCE; SATELLITE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Costa Rica;forest regeneration;logged forest;old-growth forest;phylogenetic conservatism;pollination;reproductive traits;second-growth forest;seed dispersal;sexual systems;wet tropical forest</t>
+          <t>Costa Rica; forest regeneration; logged forest; old-growth forest; phylogenetic conservatism; pollination; reproductive traits; second-growth forest; seed dispersal; sexual systems; wet tropical forest</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LOWLAND RAIN-FOREST;SEED SIZE;CORRELATED EVOLUTION;WIND POLLINATION;BREEDING SYSTEMS;DRY FORESTS;OLD-GROWTH;DIOECY;TREES;DISPERSAL</t>
+          <t>LOWLAND RAIN-FOREST; SEED SIZE; CORRELATED EVOLUTION; WIND POLLINATION; BREEDING SYSTEMS; DRY FORESTS; OLD-GROWTH; DIOECY; TREES; DISPERSAL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>forest disturbance;forest cover change;tropical forests;forest management;forest degradation;Amazonas;Brazil;Landsat 8;Sentinel-2;PlanetScope</t>
+          <t>forest disturbance; forest cover change; tropical forests; forest management; forest degradation; Amazonas; Brazil; Landsat 8; Sentinel-2; PlanetScope</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FOREST DEGRADATION;SATELLITE DATA;CANOPY DAMAGE;MATO-GROSSO;CLASSIFICATION;AREA;MAP;ACCURACY;RECOVERY;COVER</t>
+          <t>FOREST DEGRADATION; SATELLITE DATA; CANOPY DAMAGE; MATO-GROSSO; CLASSIFICATION; AREA; MAP; ACCURACY; RECOVERY; COVER</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3171,7 +3171,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;TROPICAL DEFORESTATION;STRATEGIES;VEGETATION;AMAZON</t>
+          <t>FOREST DISTURBANCE; TROPICAL DEFORESTATION; STRATEGIES; VEGETATION; AMAZON</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brazil;forest disturbance;remote sensing;selective logging;tropical forest</t>
+          <t>Brazil; forest disturbance; remote sensing; selective logging; tropical forest</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;EAST KALIMANTAN;FIRE SUSCEPTIBILITY;REDUCED-IMPACT;CANOPY DAMAGE;DYNAMICS;DEFORESTATION;INDONESIA;INTENSITY;LANDSCAPE</t>
+          <t>TROPICAL RAIN-FOREST; EAST KALIMANTAN; FIRE SUSCEPTIBILITY; REDUCED-IMPACT; CANOPY DAMAGE; DYNAMICS; DEFORESTATION; INDONESIA; INTENSITY; LANDSCAPE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fine root biomass;Fine root morphology;Fine root production;Forest disturbance;Land use change</t>
+          <t>Fine root biomass; Fine root morphology; Fine root production; Forest disturbance; Land use change</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SOIL CARBON;SCOTS PINE;NORWAY SPRUCE;SURFACE-AREA;OLD-GROWTH;DYNAMICS;NITROGEN;AGROFORESTRY;TURNOVER;AVAILABILITY</t>
+          <t>SOIL CARBON; SCOTS PINE; NORWAY SPRUCE; SURFACE-AREA; OLD-GROWTH; DYNAMICS; NITROGEN; AGROFORESTRY; TURNOVER; AVAILABILITY</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>forest loss detection;Sentinel-1;tropical forest;Southeast Asia;protected areas</t>
+          <t>forest loss detection; Sentinel-1; tropical forest; Southeast Asia; protected areas</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Time series;Colombian Amazon;Land cover;Deforestation;Landsat;IPCC;Estimation</t>
+          <t>Time series; Colombian Amazon; Land cover; Deforestation; Landsat; IPCC; Estimation</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TROPICAL DEFORESTATION;FOREST DISTURBANCE;CARBON EMISSIONS;ESTIMATING AREA;SPECIES RICHNESS;CLOUD SHADOW;MAP ACCURACY;RAIN-FORESTS;PATTERNS;INFERENCE</t>
+          <t>TROPICAL DEFORESTATION; FOREST DISTURBANCE; CARBON EMISSIONS; ESTIMATING AREA; SPECIES RICHNESS; CLOUD SHADOW; MAP ACCURACY; RAIN-FORESTS; PATTERNS; INFERENCE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>humid tropics;macropores;permeability;soil pipes;tracers;Udult;Ultisol</t>
+          <t>humid tropics; macropores; permeability; soil pipes; tracers; Udult; Ultisol</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SUSPENDED SEDIMENT;RUNOFF GENERATION;WATER;HILLSLOPE;CATCHMENTS;HYDROLOGY;FLOWPATHS;RAINFALL;FLUX</t>
+          <t>SUSPENDED SEDIMENT; RUNOFF GENERATION; WATER; HILLSLOPE; CATCHMENTS; HYDROLOGY; FLOWPATHS; RAINFALL; FLUX</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3406,12 +3406,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Costa Rica;dynamics;Hawaii;LiDAR;power law;rain forest</t>
+          <t>Costa Rica; dynamics; Hawaii; LiDAR; power law; rain forest</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>GENERAL QUANTITATIVE THEORY;NEOTROPICAL RAIN-FOREST;FREQUENCY-DISTRIBUTIONS;DYNAMICS;LANDSCAPE;CANOPY;GAP;ECOLOGY;DENSITY;BIOMASS</t>
+          <t>GENERAL QUANTITATIVE THEORY; NEOTROPICAL RAIN-FOREST; FREQUENCY-DISTRIBUTIONS; DYNAMICS; LANDSCAPE; CANOPY; GAP; ECOLOGY; DENSITY; BIOMASS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Agroforestry;Carbon sequestration;Fine root production;Fine root mortality;Forest disturbance;Land use change;Root litter</t>
+          <t>Agroforestry; Carbon sequestration; Fine root production; Fine root mortality; Forest disturbance; Land use change; Root litter</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BELOW-GROUND CARBON;NET PRIMARY PRODUCTION;LAND-USE CHANGE;SECONDARY FOREST;ORGANIC-MATTER;CLIMATE-CHANGE;RAIN-FOREST;DYNAMICS;BIOMASS;TURNOVER</t>
+          <t>BELOW-GROUND CARBON; NET PRIMARY PRODUCTION; LAND-USE CHANGE; SECONDARY FOREST; ORGANIC-MATTER; CLIMATE-CHANGE; RAIN-FOREST; DYNAMICS; BIOMASS; TURNOVER</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3486,12 +3486,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Landsat;LandTrendr;Change detection;Hevea brasiliensis;Plantation;Market;Correlation;Cambodia;Vietnam;Border;Frontier;Tropical;Evergreen;Dry deciduous;Land concession</t>
+          <t>Landsat; LandTrendr; Change detection; Hevea brasiliensis; Plantation; Market; Correlation; Cambodia; Vietnam; Border; Frontier; Tropical; Evergreen; Dry deciduous; Land concession</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RESOLUTION GLOBAL-MAPS;RADIOMETRIC CORRECTION;DEFORESTATION RATES;DETECTING TRENDS;COVER;MODIS;PLANTATIONS;CLOUD;PATTERNS;AREA</t>
+          <t>RESOLUTION GLOBAL-MAPS; RADIOMETRIC CORRECTION; DEFORESTATION RATES; DETECTING TRENDS; COVER; MODIS; PLANTATIONS; CLOUD; PATTERNS; AREA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Biodiversity data;cluster analysis;community ecology;Latent Dirichlet Allocation;multivariate statistics;text-mining</t>
+          <t>Biodiversity data; cluster analysis; community ecology; Latent Dirichlet Allocation; multivariate statistics; text-mining</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -3562,12 +3562,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>cyclone;disturbance;forest;hurricane;island;Micronesia;salt damage;storm;wind</t>
+          <t>cyclone; disturbance; forest; hurricane; island; Micronesia; salt damage; storm; wind</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LUQUILLO EXPERIMENTAL FOREST;TROPICAL RAIN-FOREST;HURRICANE HUGO;PUERTO-RICO;DAMAGE;DISTURBANCE;NICARAGUA;JOAN</t>
+          <t>LUQUILLO EXPERIMENTAL FOREST; TROPICAL RAIN-FOREST; HURRICANE HUGO; PUERTO-RICO; DAMAGE; DISTURBANCE; NICARAGUA; JOAN</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Forest disturbance;Fragmentation;Canopy density;Sariska Tiger Reserve</t>
+          <t>Forest disturbance; Fragmentation; Canopy density; Sariska Tiger Reserve</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LANDSAT TIME-SERIES;PACIFIC-NORTHWEST;UNITED-STATES;COVER;PATTERNS</t>
+          <t>LANDSAT TIME-SERIES; PACIFIC-NORTHWEST; UNITED-STATES; COVER; PATTERNS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ALOS-2;Brazil;Degradation;Forest disturbance;PALSAR-2;RADARSAT-2;Random Forest;Selective logging;Sentinel-1;Synthetic aperture radar;Time series;Tropical forest</t>
+          <t>ALOS-2; Brazil; Degradation; Forest disturbance; PALSAR-2; RADARSAT-2; Random Forest; Selective logging; Sentinel-1; Synthetic aperture radar; Time series; Tropical forest</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>REMOTE-SENSING DATA;FOREST DEGRADATION;RAIN-FORESTS;LANDSAT;DEFORESTATION;DISTURBANCE;SENTINEL-1;MAP;CLASSIFICATION;WOODLANDS</t>
+          <t>REMOTE-SENSING DATA; FOREST DEGRADATION; RAIN-FORESTS; LANDSAT; DEFORESTATION; DISTURBANCE; SENTINEL-1; MAP; CLASSIFICATION; WOODLANDS</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tree mortality;Stand dynamics;Carbon balance;NEP;Climate change;Biodiversity;Spectral mixture analysis</t>
+          <t>Tree mortality; Stand dynamics; Carbon balance; NEP; Climate change; Biodiversity; Spectral mixture analysis</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;CANOPY GAPS;PHASE REGENERATION;MULTITEMPORAL LANDSAT;DISTURBANCE;MORTALITY;LIANAS;VEGETATION;WILDFIRE;DYNAMICS</t>
+          <t>RAIN-FOREST; CANOPY GAPS; PHASE REGENERATION; MULTITEMPORAL LANDSAT; DISTURBANCE; MORTALITY; LIANAS; VEGETATION; WILDFIRE; DYNAMICS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Forest monitoring;Tropical deforestation;Change detection;ALOS PALSAR</t>
+          <t>Forest monitoring; Tropical deforestation; Change detection; ALOS PALSAR</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FOREST BIOMASS;LAND;COVER;VEGETATION</t>
+          <t>FOREST BIOMASS; LAND; COVER; VEGETATION</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3758,12 +3758,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>time series analysis;forest monitoring;SAR;Sentinel-1</t>
+          <t>time series analysis; forest monitoring; SAR; Sentinel-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DEFORESTATION DETECTION;AMAZON</t>
+          <t>DEFORESTATION DETECTION; AMAZON</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>multi-spectral;dimension reduction;deforestation monitor;Landsat time series</t>
+          <t>multi-spectral; dimension reduction; deforestation monitor; Landsat time series</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;TASSELLED CAP;LANDSAT;TRANSFORMATION;TRENDS;NDVI;DERIVATION;MODELS;MAD</t>
+          <t>FOREST DISTURBANCE; TASSELLED CAP; LANDSAT; TRANSFORMATION; TRENDS; NDVI; DERIVATION; MODELS; MAD</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3838,12 +3838,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>anthropogenic pressures;climate;forest fragments;soils;floristic composition;successional stages;tropical dry forest</t>
+          <t>anthropogenic pressures; climate; forest fragments; soils; floristic composition; successional stages; tropical dry forest</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PLANT-SPECIES RICHNESS;SOUTH-AMERICA;LAND-COVER;DIVERSITY;CONSERVATION;SUCCESSION;FRAGMENTS;VENEZUELA;PATTERNS;ECOLOGY</t>
+          <t>PLANT-SPECIES RICHNESS; SOUTH-AMERICA; LAND-COVER; DIVERSITY; CONSERVATION; SUCCESSION; FRAGMENTS; VENEZUELA; PATTERNS; ECOLOGY</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MODIS;Change detection;Distance metrics;Time series;Forest disturbance</t>
+          <t>MODIS; Change detection; Distance metrics; Time series; Forest disturbance</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CHANGE-VECTOR ANALYSIS;LAND-COVER;TROPICAL DEFORESTATION;BOREAL FOREST;DATA SET;VEGETATION;DISTURBANCE;IMAGERY;DYNAMICS;CLIMATE</t>
+          <t>CHANGE-VECTOR ANALYSIS; LAND-COVER; TROPICAL DEFORESTATION; BOREAL FOREST; DATA SET; VEGETATION; DISTURBANCE; IMAGERY; DYNAMICS; CLIMATE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3918,12 +3918,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>age structure;dendroecology;disturbance history;Melia azederach;Meliaceae;spatial statistics;Thailand;tropical forest</t>
+          <t>age structure; dendroecology; disturbance history; Melia azederach; Meliaceae; spatial statistics; Thailand; tropical forest</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>STAND DYNAMICS;AGE STRUCTURE;LARGE-SCALE;GROWTH;BIOMASS;GAP;ECOLOGY;TREES;REGENERATION;INTENSITY</t>
+          <t>STAND DYNAMICS; AGE STRUCTURE; LARGE-SCALE; GROWTH; BIOMASS; GAP; ECOLOGY; TREES; REGENERATION; INTENSITY</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>floristic composition;fragmentation;pioneers;tree communities</t>
+          <t>floristic composition; fragmentation; pioneers; tree communities</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;WOOD DENSITY;HABITAT FRAGMENTATION;SPECIES DISTRIBUTIONS;COMMUNITY STRUCTURE;NATURAL-RESOURCE;FIRE;DEFORESTATION;PATTERNS;BIOMASS</t>
+          <t>TROPICAL RAIN-FOREST; WOOD DENSITY; HABITAT FRAGMENTATION; SPECIES DISTRIBUTIONS; COMMUNITY STRUCTURE; NATURAL-RESOURCE; FIRE; DEFORESTATION; PATTERNS; BIOMASS</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SE-India;Climbing mechanism;Dispersal mode;Liana abundance;Site disturbance;Tropical dry evergreen forest</t>
+          <t>SE-India; Climbing mechanism; Dispersal mode; Liana abundance; Site disturbance; Tropical dry evergreen forest</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;REPRODUCTIVE TRAITS;NATIONAL-PARK;LOGGING GAPS;ABUNDANCE;TREES;PATTERNS;BIOMASS;COMMUNITIES;PHENOLOGY</t>
+          <t>RAIN-FOREST; REPRODUCTIVE TRAITS; NATIONAL-PARK; LOGGING GAPS; ABUNDANCE; TREES; PATTERNS; BIOMASS; COMMUNITIES; PHENOLOGY</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4038,12 +4038,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>altitude;anthropogenic disturbance;conservation;floristic composition;Neotropics;tropical oak forest</t>
+          <t>altitude; anthropogenic disturbance; conservation; floristic composition; Neotropics; tropical oak forest</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ALTITUDINAL GRADIENT;LOS TUXTLAS;FOREST;VEGETATION;COMMUNITY;RUBIACEAE;RICHNESS;CLIMATE;PLANTS</t>
+          <t>ALTITUDINAL GRADIENT; LOS TUXTLAS; FOREST; VEGETATION; COMMUNITY; RUBIACEAE; RICHNESS; CLIMATE; PLANTS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4079,7 +4079,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SUCCESSIONAL STATUS;PHASE REGENERATION;TREES;DEFINITION;GROWTH</t>
+          <t>SUCCESSIONAL STATUS; PHASE REGENERATION; TREES; DEFINITION; GROWTH</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4114,12 +4114,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>aboveground carbon;aerial survey;drone;forest disturbance;ground-transect;land use;multiple-use landscape;strangler fig</t>
+          <t>aboveground carbon; aerial survey; drone; forest disturbance; ground-transect; land use; multiple-use landscape; strangler fig</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FORESTS;CONSERVATION;DENSITY</t>
+          <t>FORESTS; CONSERVATION; DENSITY</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>deforestation;degradation;drivers;Mexico;recovery;tropical forest</t>
+          <t>deforestation; degradation; drivers; Mexico; recovery; tropical forest</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MULTINOMIAL LOGISTIC-REGRESSION;CENTRAL YUCATAN PENINSULA;LAND-USE CHANGE;CARBON EMISSIONS;TROPICAL DEFORESTATION;SOCIOECONOMIC DRIVERS;SHIFTING CULTIVATION;CHANGING LANDSCAPES;DRIVING FORCES;DEGRADATION</t>
+          <t>MULTINOMIAL LOGISTIC-REGRESSION; CENTRAL YUCATAN PENINSULA; LAND-USE CHANGE; CARBON EMISSIONS; TROPICAL DEFORESTATION; SOCIOECONOMIC DRIVERS; SHIFTING CULTIVATION; CHANGING LANDSCAPES; DRIVING FORCES; DEGRADATION</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>forest disturbance;forest recovery;community assembly;leaf trait;plant strategy;plant functional types</t>
+          <t>forest disturbance; forest recovery; community assembly; leaf trait; plant strategy; plant functional types</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>POPULATION-DYNAMICS;RAIN-FORESTS;RESTORATION;SEEDLINGS;RECOVERY;IMPACT</t>
+          <t>POPULATION-DYNAMICS; RAIN-FORESTS; RESTORATION; SEEDLINGS; RECOVERY; IMPACT</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ecohydrology;orographic precipitation;moisture recycling;disturbance hydrology;climate</t>
+          <t>ecohydrology; orographic precipitation; moisture recycling; disturbance hydrology; climate</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CLIMATE-CHANGE;WATER;DEFORESTATION;DEPOSITION;DYNAMICS;RAINFALL;IMPACT;COVER;BASE</t>
+          <t>CLIMATE-CHANGE; WATER; DEFORESTATION; DEPOSITION; DYNAMICS; RAINFALL; IMPACT; COVER; BASE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>climate;deciduous;mesic forest;moist forest;natural history;sclerophyll;talasiga grassland;tropical dry forest</t>
+          <t>climate; deciduous; mesic forest; moist forest; natural history; sclerophyll; talasiga grassland; tropical dry forest</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;SEMI-DECIDUOUS FOREST;SEED DISPERSAL;SEXUAL SYSTEMS;VITI-LEVU;VEGETATION;DIVERSITY;CHIROPTERA;DEFORESTATION;PTEROPODIDAE</t>
+          <t>TROPICAL RAIN-FOREST; SEMI-DECIDUOUS FOREST; SEED DISPERSAL; SEXUAL SYSTEMS; VITI-LEVU; VEGETATION; DIVERSITY; CHIROPTERA; DEFORESTATION; PTEROPODIDAE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4315,7 +4315,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;QUEENSLAND;PATCHES;ISLAND;LIANAS;PANAMA;SIZE</t>
+          <t>RAIN-FOREST; QUEENSLAND; PATCHES; ISLAND; LIANAS; PANAMA; SIZE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Atherton Tablelands;Competition;Edge effects;Forest fragmentation;Plant-plant interactions;Point-pattern analysis</t>
+          <t>Atherton Tablelands; Competition; Edge effects; Forest fragmentation; Plant-plant interactions; Point-pattern analysis</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SPECIES RICHNESS;HABITAT EDGES;CANOPY;PATTERNS;TREES;ABUNDANCE;IMPACT;GROWTH;PLANT;DOMINANCE</t>
+          <t>SPECIES RICHNESS; HABITAT EDGES; CANOPY; PATTERNS; TREES; ABUNDANCE; IMPACT; GROWTH; PLANT; DOMINANCE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4390,12 +4390,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Soil organic carbon;Tropical forests, selective logging;Soil organic carbon change rate</t>
+          <t>Soil organic carbon; Tropical forests, selective logging; Soil organic carbon change rate</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>TREE SPECIES COMPOSITION;RAIN-FOREST;MANAGEMENT;RESERVE;STOCKS;CONSUMPTION;BUDGET;DAMAGE</t>
+          <t>TREE SPECIES COMPOSITION; RAIN-FOREST; MANAGEMENT; RESERVE; STOCKS; CONSUMPTION; BUDGET; DAMAGE</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4430,12 +4430,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Lowland tropical forest;disturbance impact;floristic composition;forest structure;Tan Phu forest</t>
+          <t>Lowland tropical forest; disturbance impact; floristic composition; forest structure; Tan Phu forest</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>TREE SPECIES COMPOSITION;RAIN-FOREST;DIPTEROCARP FOREST;CANOPY;DAMAGE;REGENERATION;KALIMANTAN;IMPACTS</t>
+          <t>TREE SPECIES COMPOSITION; RAIN-FOREST; DIPTEROCARP FOREST; CANOPY; DAMAGE; REGENERATION; KALIMANTAN; IMPACTS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4467,7 +4467,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>WET EVERGREEN FOREST;POPULATION-STRUCTURE;HABITAT;REGENERATION;RECRUITMENT;SURVIVAL;BRITAIN;EDGE;SIZE</t>
+          <t>WET EVERGREEN FOREST; POPULATION-STRUCTURE; HABITAT; REGENERATION; RECRUITMENT; SURVIVAL; BRITAIN; EDGE; SIZE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Arecaceae;Biodiversity;Forest disturbance;Forest management;Tropical silviculture</t>
+          <t>Arecaceae; Biodiversity; Forest disturbance; Forest management; Tropical silviculture</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>BIODIVERSITY;INTENSITY;TIMBER</t>
+          <t>BIODIVERSITY; INTENSITY; TIMBER</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4538,12 +4538,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Landuse;arrested succession;karst;Mesoamerica;Tabasco</t>
+          <t>Landuse; arrested succession; karst; Mesoamerica; Tabasco</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SUCCESSION;ABUNDANCE;SECONDARY;REGENERATION;RECOVERY;AGRICULTURE;FLORISTICS;PASTURES;IMPACTS;GROWTH</t>
+          <t>SUCCESSION; ABUNDANCE; SECONDARY; REGENERATION; RECOVERY; AGRICULTURE; FLORISTICS; PASTURES; IMPACTS; GROWTH</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4574,12 +4574,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>biomass burning;carbon dioxide;charcoal;pandemic;reforestation;tropical forest</t>
+          <t>biomass burning; carbon dioxide; charcoal; pandemic; reforestation; tropical forest</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HIGH-RESOLUTION POLLEN;SOIL ORGANIC-MATTER;FOREST DISTURBANCE;HUMIN FRACTION;CLIMATE-CHANGE;ICE-CORE;ENVIRONMENTAL-CHANGE;VEGETATION DYNAMICS;CHARCOAL RECORDS;LAST MILLENNIUM</t>
+          <t>HIGH-RESOLUTION POLLEN; SOIL ORGANIC-MATTER; FOREST DISTURBANCE; HUMIN FRACTION; CLIMATE-CHANGE; ICE-CORE; ENVIRONMENTAL-CHANGE; VEGETATION DYNAMICS; CHARCOAL RECORDS; LAST MILLENNIUM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Carbon isotopes;Indian Ocean;Marine cores;Palaeoclimate;Pollen analysis;Soil carbonate;Tephra;Toba volcano</t>
+          <t>Carbon isotopes; Indian Ocean; Marine cores; Palaeoclimate; Pollen analysis; Soil carbonate; Tephra; Toba volcano</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ISOTOPIC COMPOSITION;NORTHERN-HEMISPHERE;INDIAN SUBCONTINENT;C-4 PHOTOSYNTHESIS;FOREST DISTURBANCE;GENETIC-STRUCTURE;CLIMATIC CHANGES;VOLCANIC WINTER;SUMMER MONSOON;OXYGEN-ISOTOPE</t>
+          <t>ISOTOPIC COMPOSITION; NORTHERN-HEMISPHERE; INDIAN SUBCONTINENT; C-4 PHOTOSYNTHESIS; FOREST DISTURBANCE; GENETIC-STRUCTURE; CLIMATIC CHANGES; VOLCANIC WINTER; SUMMER MONSOON; OXYGEN-ISOTOPE</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>compact polarimetry;forest degradation;oil palm;reflection and rotation symmetry;Wishart</t>
+          <t>compact polarimetry; forest degradation; oil palm; reflection and rotation symmetry; Wishart</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4690,12 +4690,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>drivers of land-use and -cover change;logistic regression models;hierarchical partitioning;transition potential models;Southern Mexico</t>
+          <t>drivers of land-use and -cover change; logistic regression models; hierarchical partitioning; transition potential models; Southern Mexico</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>COVER CHANGE;TROPICAL DEFORESTATION;CONSERVATION BIOLOGY;USE/COVER CHANGE;DRIVING FORCES;REGRESSION;DYNAMICS;MASSACHUSETTS;ECOLOGY</t>
+          <t>COVER CHANGE; TROPICAL DEFORESTATION; CONSERVATION BIOLOGY; USE/COVER CHANGE; DRIVING FORCES; REGRESSION; DYNAMICS; MASSACHUSETTS; ECOLOGY</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tropical rainforest;Biodiversity;Community composition;Forest disturbance;Airborne LiDAR</t>
+          <t>Tropical rainforest; Biodiversity; Community composition; Forest disturbance; Airborne LiDAR</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;INDIVIDUAL TREES;SMALL-FOOTPRINT;LEAF-OFF;BIODIVERSITY;CLASSIFICATION;DIVERSITY;STANDS;DEGRADATION;VARIABLES</t>
+          <t>ABOVEGROUND BIOMASS; INDIVIDUAL TREES; SMALL-FOOTPRINT; LEAF-OFF; BIODIVERSITY; CLASSIFICATION; DIVERSITY; STANDS; DEGRADATION; VARIABLES</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sentinel-1;Sentinel-2;Landsat;VIIRS active fire;forest disturbances;fire-related;tropical forest;multi-sensor;dense time series</t>
+          <t>Sentinel-1; Sentinel-2; Landsat; VIIRS active fire; forest disturbances; fire-related; tropical forest; multi-sensor; dense time series</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SENSING DATA SOURCES;LAND-COVER CHANGE;BURN-SEVERITY;TIME-SERIES;BRAZILIAN AMAZON;SAR BACKSCATTER;OIL PALM;EL-NINO;DEFORESTATION;SENTINEL-1</t>
+          <t>SENSING DATA SOURCES; LAND-COVER CHANGE; BURN-SEVERITY; TIME-SERIES; BRAZILIAN AMAZON; SAR BACKSCATTER; OIL PALM; EL-NINO; DEFORESTATION; SENTINEL-1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Low nutrient status;Land-use change;Extracellular enzymes;Tropical mountain rainforest;Microbial resource stoichiometry;P-demand</t>
+          <t>Low nutrient status; Land-use change; Extracellular enzymes; Tropical mountain rainforest; Microbial resource stoichiometry; P-demand</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MICROBIAL COMMUNITY COMPOSITION;PHOSPHORUS AVAILABILITY;NITROGEN LIMITATION;ORGANIC-MATTER;CARBON;MICROORGANISMS;DIVERSITY;BACTERIAL;BIOMASS;STOCKS</t>
+          <t>MICROBIAL COMMUNITY COMPOSITION; PHOSPHORUS AVAILABILITY; NITROGEN LIMITATION; ORGANIC-MATTER; CARBON; MICROORGANISMS; DIVERSITY; BACTERIAL; BIOMASS; STOCKS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4851,7 +4851,7 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RAIN-FORESTS;DIVERSITY</t>
+          <t>RAIN-FORESTS; DIVERSITY</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4882,12 +4882,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Conservation;forest ecology;floristic similarity;phytosociology;stratification;Brazil</t>
+          <t>Conservation; forest ecology; floristic similarity; phytosociology; stratification; Brazil</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SOUTHEASTERN BRAZIL;SIMILARITY;DIVERSITY</t>
+          <t>SOUTHEASTERN BRAZIL; SIMILARITY; DIVERSITY</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>forest disturbance alerts;Congo Basin;humid tropical forest;deforestation;near real-time;Sentinel-1;radar</t>
+          <t>forest disturbance alerts; Congo Basin; humid tropical forest; deforestation; near real-time; Sentinel-1; radar</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CANOPY DAMAGE;TIME-SERIES;DEFORESTATION;LANDSAT;COVER;MAP;SATELLITE;ACCURACY</t>
+          <t>CANOPY DAMAGE; TIME-SERIES; DEFORESTATION; LANDSAT; COVER; MAP; SATELLITE; ACCURACY</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>canopy height;environmental gradients;forest dynamics;gap size distribution;landscape ecology;power law;tropical forest</t>
+          <t>canopy height; environmental gradients; forest dynamics; gap size distribution; landscape ecology; power law; tropical forest</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>MULTIMODEL INFERENCE;ABOVEGROUND BIOMASS;SIZE DISTRIBUTION;TREE MORTALITY;WIND;PATTERNS;REGENERATION;AGENT;LIDAR</t>
+          <t>MULTIMODEL INFERENCE; ABOVEGROUND BIOMASS; SIZE DISTRIBUTION; TREE MORTALITY; WIND; PATTERNS; REGENERATION; AGENT; LIDAR</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;NET PRIMARY PRODUCTION;SNOW AVALANCHE DISTURBANCE;RESOLUTION SATELLITE DATA;SURFACE SOIL-MOISTURE;COARSE WOODY DEBRIS;LANDSAT TM DATA;BOREAL FOREST;BURN SEVERITY;CARBON-CYCLE</t>
+          <t>TROPICAL RAIN-FOREST; NET PRIMARY PRODUCTION; SNOW AVALANCHE DISTURBANCE; RESOLUTION SATELLITE DATA; SURFACE SOIL-MOISTURE; COARSE WOODY DEBRIS; LANDSAT TM DATA; BOREAL FOREST; BURN SEVERITY; CARBON-CYCLE</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>random forests;support vector machines;tropical dry forest;forest cover change;time series analyses;Breaks for Additive Season and Trend (BFAST)</t>
+          <t>random forests; support vector machines; tropical dry forest; forest cover change; time series analyses; Breaks for Additive Season and Trend (BFAST)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LANDSAT TIME-SERIES;DEFORESTATION;CLASSIFICATION;SEGMENTATION;ACCURACY;PATTERNS;SUPPORT</t>
+          <t>LANDSAT TIME-SERIES; DEFORESTATION; CLASSIFICATION; SEGMENTATION; ACCURACY; PATTERNS; SUPPORT</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5074,12 +5074,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Continental Southeast Asia;forest change detection;biomass loss;ALOS PALSAR</t>
+          <t>Continental Southeast Asia; forest change detection; biomass loss; ALOS PALSAR</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>UNSUPERVISED CHANGE DETECTION;BAND SAR BACKSCATTER;TROPICAL DEFORESTATION;ABOVEGROUND BIOMASS;DETECTING TRENDS;COVER;EMISSIONS;SAVANNA;CLASSIFICATION;MOSAICS</t>
+          <t>UNSUPERVISED CHANGE DETECTION; BAND SAR BACKSCATTER; TROPICAL DEFORESTATION; ABOVEGROUND BIOMASS; DETECTING TRENDS; COVER; EMISSIONS; SAVANNA; CLASSIFICATION; MOSAICS</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Change detection;Disturbance attribution;Landsat;LandTrendr;Hengduan Mountains region</t>
+          <t>Change detection; Disturbance attribution; Landsat; LandTrendr; Hengduan Mountains region</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ANTHROPOGENIC DISTURBANCE;PROTECTION PROGRAM;TROPICAL FORESTS;DETECTING TRENDS;CLIMATE-CHANGE;FIRE;CLASSIFICATION;BIODIVERSITY;VEGETATION;RECOVERY</t>
+          <t>ANTHROPOGENIC DISTURBANCE; PROTECTION PROGRAM; TROPICAL FORESTS; DETECTING TRENDS; CLIMATE-CHANGE; FIRE; CLASSIFICATION; BIODIVERSITY; VEGETATION; RECOVERY</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>peat swamp forest;carbon accumulation rates;disturbance;peatland pool;Borneo;tropical peatland</t>
+          <t>peat swamp forest; carbon accumulation rates; disturbance; peatland pool; Borneo; tropical peatland</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LEAF-LITTER DECOMPOSITION;DISSOLVED ORGANIC-MATTER;LOWLAND RAIN-FORESTS;MULU-NATIONAL-PARK;SPATIAL VARIABILITY;DIPTEROCARP FOREST;CLIMATE-CHANGE;SOIL CARBON;SARAWAK;KALIMANTAN</t>
+          <t>LEAF-LITTER DECOMPOSITION; DISSOLVED ORGANIC-MATTER; LOWLAND RAIN-FORESTS; MULU-NATIONAL-PARK; SPATIAL VARIABILITY; DIPTEROCARP FOREST; CLIMATE-CHANGE; SOIL CARBON; SARAWAK; KALIMANTAN</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>forest disturbance;forest harvest;climate change mitigation;forest carbon stock;tropical forest</t>
+          <t>forest disturbance; forest harvest; climate change mitigation; forest carbon stock; tropical forest</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;BIOMASS;UNCERTAINTY;RECOVERY;PROJECT;GROWTH;STOCKS;DAMAGE</t>
+          <t>TROPICAL RAIN-FOREST; BIOMASS; UNCERTAINTY; RECOVERY; PROJECT; GROWTH; STOCKS; DAMAGE</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>boundary line;climate change;forest disturbance;Quercus mongolica;tree-ring;typhoon</t>
+          <t>boundary line; climate change; forest disturbance; Quercus mongolica; tree-ring; typhoon</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>TROPICAL CYCLONE ACTIVITY;CLIMATE-CHANGE;HURRICANE ACTIVITY;UNITED-STATES;ATLANTIC;GROWTH;IMPACT;20TH-CENTURY;ASSOCIATION;DISTURBANCE</t>
+          <t>TROPICAL CYCLONE ACTIVITY; CLIMATE-CHANGE; HURRICANE ACTIVITY; UNITED-STATES; ATLANTIC; GROWTH; IMPACT; 20TH-CENTURY; ASSOCIATION; DISTURBANCE</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Atlantic rainforest;Edges effect;Forest regeneration;Forest structure</t>
+          <t>Atlantic rainforest; Edges effect; Forest regeneration; Forest structure</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>TROPICAL SEMIDECIDUOUS FOREST;TREE-COMMUNITY COMPOSITION;ATLANTIC-FOREST;HABITAT FRAGMENTATION;VEGETATION STRUCTURE;SOUTHEASTERN BRAZIL;SPECIES-DIVERSITY;SMALL MAMMALS;DISTURBANCE;EDGES</t>
+          <t>TROPICAL SEMIDECIDUOUS FOREST; TREE-COMMUNITY COMPOSITION; ATLANTIC-FOREST; HABITAT FRAGMENTATION; VEGETATION STRUCTURE; SOUTHEASTERN BRAZIL; SPECIES-DIVERSITY; SMALL MAMMALS; DISTURBANCE; EDGES</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>climate change;forest management;forest vulnerability;literature review;future framework</t>
+          <t>climate change; forest management; forest vulnerability; literature review; future framework</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LAND-USE CHANGE;TROPICAL FORESTS;CHANGE IMPACTS;VEGETATION CHANGE;CARBON BALANCE;ADAPTATION;FRAGMENTATION;INDIA;COMMUNITIES;MANAGEMENT</t>
+          <t>LAND-USE CHANGE; TROPICAL FORESTS; CHANGE IMPACTS; VEGETATION CHANGE; CARBON BALANCE; ADAPTATION; FRAGMENTATION; INDIA; COMMUNITIES; MANAGEMENT</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>canopy gaps;gap composition;south-eastern Brazil;treefalls;Tropical Montane Rain Forest</t>
+          <t>canopy gaps; gap composition; south-eastern Brazil; treefalls; Tropical Montane Rain Forest</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LOWLAND TROPICAL MOIST;WET EVERGREEN FOREST;CANOPY GAPS;SPECIES COMPOSITION;TREE DIVERSITY;LIGHT;UNDERSTORY;DYNAMICS;SIZE;SEED</t>
+          <t>LOWLAND TROPICAL MOIST; WET EVERGREEN FOREST; CANOPY GAPS; SPECIES COMPOSITION; TREE DIVERSITY; LIGHT; UNDERSTORY; DYNAMICS; SIZE; SEED</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5427,7 +5427,7 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;GAP-PHASE REGENERATION;AMAZONIA;BIOMASS</t>
+          <t>TROPICAL RAIN-FOREST; GAP-PHASE REGENERATION; AMAZONIA; BIOMASS</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -5459,7 +5459,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST;PHASE REGENERATION;HETEROGENEITY;ENVIRONMENTS;SEEDLINGS</t>
+          <t>TROPICAL FOREST; PHASE REGENERATION; HETEROGENEITY; ENVIRONMENTS; SEEDLINGS</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5494,12 +5494,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bromeliaceae;epiphyte;recruitment;Tillandsia butzii;Tillandsia multicaulis;Tillandsia punctulata</t>
+          <t>Bromeliaceae; epiphyte; recruitment; Tillandsia butzii; Tillandsia multicaulis; Tillandsia punctulata</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>EPIPHYTIC BROMELIADS;POPULATION-DYNAMICS;VASCULAR EPIPHYTES;COMMUNITIES;PREFERENCES;SURVIVAL;VERACRUZ</t>
+          <t>EPIPHYTIC BROMELIADS; POPULATION-DYNAMICS; VASCULAR EPIPHYTES; COMMUNITIES; PREFERENCES; SURVIVAL; VERACRUZ</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -5530,12 +5530,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fire;Burned area;Validation;MODIS;Landsat;MCD64A1;Accuracy;Probability sampling</t>
+          <t>Fire; Burned area; Validation; MODIS; Landsat; MCD64A1; Accuracy; Probability sampling</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;SAMPLING DESIGNS;DETECTING TRENDS;FIRE SIZE;ACCURACY;AFRICA;TIME;MAP;CALIBRATION;VEGETATION</t>
+          <t>FOREST DISTURBANCE; SAMPLING DESIGNS; DETECTING TRENDS; FIRE SIZE; ACCURACY; AFRICA; TIME; MAP; CALIBRATION; VEGETATION</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>corticosterone;forest disturbance;macrophysiology;selective logging;stress physiology;tropical rainforest;understorey bird</t>
+          <t>corticosterone; forest disturbance; macrophysiology; selective logging; stress physiology; tropical rainforest; understorey bird</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HABITAT QUALITY;STRESS-RESPONSE;CORTICOSTERONE LEVELS;HORMONAL RESPONSES;SOCIAL CHALLENGE;FEATHER QUALITY;GROWTH-RATE;TRADE-OFFS;EL-NINO;CONSERVATION</t>
+          <t>HABITAT QUALITY; STRESS-RESPONSE; CORTICOSTERONE LEVELS; HORMONAL RESPONSES; SOCIAL CHALLENGE; FEATHER QUALITY; GROWTH-RATE; TRADE-OFFS; EL-NINO; CONSERVATION</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5610,12 +5610,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>liana;vines;woody vines;habitat association;habitat preference;habitat suitability;species association;host specificity;host preference;subtropical forests</t>
+          <t>liana; vines; woody vines; habitat association; habitat preference; habitat suitability; species association; host specificity; host preference; subtropical forests</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;NATIONAL-PARK;ABUNDANCE;DIVERSITY;PATTERNS;INFESTATION;TOLERANCE;LANDSCAPE;RESPONSES;BIOMASS</t>
+          <t>RAIN-FOREST; NATIONAL-PARK; ABUNDANCE; DIVERSITY; PATTERNS; INFESTATION; TOLERANCE; LANDSCAPE; RESPONSES; BIOMASS</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5650,12 +5650,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>disturbance;hurricane damage;islands;point pattern analysis;recruitment;second growth;seemingly unrelated regression;spatial analysis;succession;tropical cyclone</t>
+          <t>disturbance; hurricane damage; islands; point pattern analysis; recruitment; second growth; seemingly unrelated regression; spatial analysis; succession; tropical cyclone</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;SEEDLING RECRUITMENT;CYCLONE WAKA;DYNAMICS;REGENERATION;PATTERNS;GROWTH;VAVAU;DEPENDENCE;VEGETATION</t>
+          <t>RAIN-FOREST; SEEDLING RECRUITMENT; CYCLONE WAKA; DYNAMICS; REGENERATION; PATTERNS; GROWTH; VAVAU; DEPENDENCE; VEGETATION</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Amazonia;rain forest;fossil pollen;charcoal;climate change;hydrarch succession;Holocene</t>
+          <t>Amazonia; rain forest; fossil pollen; charcoal; climate change; hydrarch succession; Holocene</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;HISTORY;RECORDS;IMPACT;TREE;AGRICULTURE;DIVERSITY;BASIN;LAKE</t>
+          <t>FOREST DISTURBANCE; HISTORY; RECORDS; IMPACT; TREE; AGRICULTURE; DIVERSITY; BASIN; LAKE</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5730,12 +5730,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Southeast Asia;Land use;Foraging;Clearance;Tropical ecology;Neolithic;Austronesian</t>
+          <t>Southeast Asia; Land use; Foraging; Clearance; Tropical ecology; Neolithic; Austronesian</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;TARO COLOCASIA-ESCULENTA;NEW-GUINEA;LATE PLEISTOCENE;EARLY AGRICULTURE;CLIMATE-CHANGE;KUK SWAMP;PALYNOLOGICAL RECORD;ENVIRONMENTAL-CHANGE;NICHE CONSTRUCTION</t>
+          <t>TROPICAL RAIN-FOREST; TARO COLOCASIA-ESCULENTA; NEW-GUINEA; LATE PLEISTOCENE; EARLY AGRICULTURE; CLIMATE-CHANGE; KUK SWAMP; PALYNOLOGICAL RECORD; ENVIRONMENTAL-CHANGE; NICHE CONSTRUCTION</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5770,12 +5770,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>pollen analysis;stable isotopes;Yucatan Peninsula;Mexico;tropical forest</t>
+          <t>pollen analysis; stable isotopes; Yucatan Peninsula; Mexico; tropical forest</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>MAYA LOWLANDS;SOUTHEASTERN MEXICO;TROPICAL FOREST;CIVILIZATION;GUATEMALA;COLLAPSE;DROUGHT;LAKES</t>
+          <t>MAYA LOWLANDS; SOUTHEASTERN MEXICO; TROPICAL FOREST; CIVILIZATION; GUATEMALA; COLLAPSE; DROUGHT; LAKES</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Landsat;NDVI;deforestation;forest degradation;magnitude of change;goodness-of-fit;amplitude</t>
+          <t>Landsat; NDVI; deforestation; forest degradation; magnitude of change; goodness-of-fit; amplitude</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LANDSAT TIME-SERIES;VEGETATION INDEXES;DEFORESTATION;DEGRADATION;COVER;NDVI;AREA;VARIABILITY;LANDTRENDR;ALGORITHM</t>
+          <t>LANDSAT TIME-SERIES; VEGETATION INDEXES; DEFORESTATION; DEGRADATION; COVER; NDVI; AREA; VARIABILITY; LANDTRENDR; ALGORITHM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5851,7 +5851,7 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PLANT FUNCTIONAL TRAITS;ATLANTIC FOREST;DISTRIBUTION PATTERNS;BIOMASS;TREE;DIVERSITY;CLIMATE;STORAGE;PRODUCTIVITY;BIODIVERSITY</t>
+          <t>PLANT FUNCTIONAL TRAITS; ATLANTIC FOREST; DISTRIBUTION PATTERNS; BIOMASS; TREE; DIVERSITY; CLIMATE; STORAGE; PRODUCTIVITY; BIODIVERSITY</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>global change;deforestation;monitoring;Landsat;remote sensing</t>
+          <t>global change; deforestation; monitoring; Landsat; remote sensing</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>COVER LOSS;REAL-TIME;MODIS;DEFORESTATION;CLASSIFICATION;AMAZON;CALIBRATION;ALGORITHM;SPACE;AVHRR</t>
+          <t>COVER LOSS; REAL-TIME; MODIS; DEFORESTATION; CLASSIFICATION; AMAZON; CALIBRATION; ALGORITHM; SPACE; AVHRR</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>gradient analyses;habitat specialization;liana diversity;phylogenetic community structure;terra firme forest;vines</t>
+          <t>gradient analyses; habitat specialization; liana diversity; phylogenetic community structure; terra firme forest; vines</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>COMMUNITY STRUCTURE;DISTRIBUTION PATTERNS;FUNCTIONAL TRAITS;BETA-DIVERSITY;FOREST;ECOLOGY;NICHE;SCALE;SOIL;CONSERVATION</t>
+          <t>COMMUNITY STRUCTURE; DISTRIBUTION PATTERNS; FUNCTIONAL TRAITS; BETA-DIVERSITY; FOREST; ECOLOGY; NICHE; SCALE; SOIL; CONSERVATION</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5966,12 +5966,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>erosion;sediment yield;forestry;South-East Asia;roads;landslides</t>
+          <t>erosion; sediment yield; forestry; South-East Asia; roads; landslides</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;SOIL-EROSION;SURFACE WASH;WATER-YIELD;SEDIMENT;MALAYSIA;SABAH;DELIVERY;THROUGHFLOW;PHILIPPINES</t>
+          <t>TROPICAL RAIN-FOREST; SOIL-EROSION; SURFACE WASH; WATER-YIELD; SEDIMENT; MALAYSIA; SABAH; DELIVERY; THROUGHFLOW; PHILIPPINES</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>deforestation;Landtrend;time series;forest disturbance</t>
+          <t>deforestation; Landtrend; time series; forest disturbance</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>eucalyptus;multi-satellite data;Google Earth Engine (GEE)</t>
+          <t>eucalyptus; multi-satellite data; Google Earth Engine (GEE)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>TIME-SERIES;FOREST DISTURBANCE;LAND-USE;PERFORMANCE;ALGORITHM;EXPANSION;CHINA;TREES</t>
+          <t>TIME-SERIES; FOREST DISTURBANCE; LAND-USE; PERFORMANCE; ALGORITHM; EXPANSION; CHINA; TREES</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6118,12 +6118,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>canopy disturbance;photosynthetically active radiation;rain forest;temperature;vapour pressure deficit</t>
+          <t>canopy disturbance; photosynthetically active radiation; rain forest; temperature; vapour pressure deficit</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LIGHT;HURRICANE</t>
+          <t>LIGHT; HURRICANE</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Human disturbance;tree density;species diversity;tropical forests;southern India</t>
+          <t>Human disturbance; tree density; species diversity; tropical forests; southern India</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>TREE SPECIES COMPOSITION;EVERGREEN FOREST;RESOURCE COLLECTION;RAIN-FORESTS;LONG-TERM;DYNAMICS;DIVERSITY;CONSERVATION;BIODIVERSITY;RESERVE</t>
+          <t>TREE SPECIES COMPOSITION; EVERGREEN FOREST; RESOURCE COLLECTION; RAIN-FORESTS; LONG-TERM; DYNAMICS; DIVERSITY; CONSERVATION; BIODIVERSITY; RESERVE</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6190,12 +6190,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>carbon dioxide;ground water table;methane;nitrogen fertilizer;nitrous oxide;peatland</t>
+          <t>carbon dioxide; ground water table; methane; nitrogen fertilizer; nitrous oxide; peatland</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CENTRAL KALIMANTAN;TROPICAL PEATLANDS;SOIL RESPIRATION;CARBON-DIOXIDE;N2O EMISSIONS;3 ECOSYSTEMS;DENITRIFICATION;METHANE;FLUXES;SARAWAK</t>
+          <t>CENTRAL KALIMANTAN; TROPICAL PEATLANDS; SOIL RESPIRATION; CARBON-DIOXIDE; N2O EMISSIONS; 3 ECOSYSTEMS; DENITRIFICATION; METHANE; FLUXES; SARAWAK</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6230,12 +6230,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Knuckles Forest Reserve;Montane forest;Cardamom;Forest disturbance;Forest structure;Conservation</t>
+          <t>Knuckles Forest Reserve; Montane forest; Cardamom; Forest disturbance; Forest structure; Conservation</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;TREE SPECIES-DIVERSITY;WESTERN-GHATS;FLORISTIC COMPOSITION;SHIFTING CULTIVATION;UNDISTURBED SITES;DISTURBANCE;SUCCESSION;RECOVERY;COMMUNITY</t>
+          <t>TROPICAL RAIN-FOREST; TREE SPECIES-DIVERSITY; WESTERN-GHATS; FLORISTIC COMPOSITION; SHIFTING CULTIVATION; UNDISTURBED SITES; DISTURBANCE; SUCCESSION; RECOVERY; COMMUNITY</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6270,12 +6270,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>anthropogenic disturbance;ecosystem impacts;tropical dry forest;soils;India</t>
+          <t>anthropogenic disturbance; ecosystem impacts; tropical dry forest; soils; India</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SIMLIPAL NATIONAL-PARK;BILIGIRI RANGAN HILLS;NON-TIMBER FOREST;WESTERN-GHATS;DEFORESTATION;CONSERVATION;DIVERSITY;INFILTRATION;BIODIVERSITY;CULTIVATION</t>
+          <t>SIMLIPAL NATIONAL-PARK; BILIGIRI RANGAN HILLS; NON-TIMBER FOREST; WESTERN-GHATS; DEFORESTATION; CONSERVATION; DIVERSITY; INFILTRATION; BIODIVERSITY; CULTIVATION</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Biomass extraction;Forest structure;Disturbance;Human use;Protected areas;Nepal</t>
+          <t>Biomass extraction; Forest structure; Disturbance; Human use; Protected areas; Nepal</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SARISKA-TIGER RESERVE;DRY TROPICAL FOREST;ANTHROPOGENIC DISTURBANCE;VEGETATION STRUCTURE;WILDLIFE-SANCTUARY;SPECIES-DIVERSITY;WESTERN-GHATS;PEOPLE;MANAGEMENT;CONSERVATION</t>
+          <t>SARISKA-TIGER RESERVE; DRY TROPICAL FOREST; ANTHROPOGENIC DISTURBANCE; VEGETATION STRUCTURE; WILDLIFE-SANCTUARY; SPECIES-DIVERSITY; WESTERN-GHATS; PEOPLE; MANAGEMENT; CONSERVATION</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Google Earth Engine;BFASTmonitor;forest disturbance;sub-annual;Landsat</t>
+          <t>Google Earth Engine; BFASTmonitor; forest disturbance; sub-annual; Landsat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>TIME-SERIES;FOREST DISTURBANCE;STRUCTURAL-CHANGES;DETECTING TRENDS;SNOW DETECTION;CLOUD SHADOW;LANDSAT;DEFORESTATION;RECOVERY;AMAZON</t>
+          <t>TIME-SERIES; FOREST DISTURBANCE; STRUCTURAL-CHANGES; DETECTING TRENDS; SNOW DETECTION; CLOUD SHADOW; LANDSAT; DEFORESTATION; RECOVERY; AMAZON</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6390,12 +6390,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Atlantic forest;Canopy gaps;Disturbance regime;Log-normal distribution;Maximum likelihood</t>
+          <t>Atlantic forest; Canopy gaps; Disturbance regime; Log-normal distribution; Maximum likelihood</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;CANOPY GAPS;SPATIALLY-EXPLICIT;GROWTH;DYNAMICS;PATTERNS;DISTURBANCE;DEFINITION;SIMULATION;CLOSURE</t>
+          <t>TROPICAL RAIN-FOREST; CANOPY GAPS; SPATIALLY-EXPLICIT; GROWTH; DYNAMICS; PATTERNS; DISTURBANCE; DEFINITION; SIMULATION; CLOSURE</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6430,12 +6430,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Forest management;human forest destruction;liana diversity;Nilgiri hills;Palni hills</t>
+          <t>Forest management; human forest destruction; liana diversity; Nilgiri hills; Palni hills</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BELOW-GROUND COMPETITION;RAIN-FOREST;VEGETATION STRUCTURE;COMMUNITY DIVERSITY;TREE DIVERSITY;PATTERNS;ABUNDANCE;MALAYSIA;ECOLOGY;HISTORY</t>
+          <t>BELOW-GROUND COMPETITION; RAIN-FOREST; VEGETATION STRUCTURE; COMMUNITY DIVERSITY; TREE DIVERSITY; PATTERNS; ABUNDANCE; MALAYSIA; ECOLOGY; HISTORY</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6467,7 +6467,7 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CONSERVATION;ENVIRONMENT;FORESTS</t>
+          <t>CONSERVATION; ENVIRONMENT; FORESTS</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6502,12 +6502,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>aboveground biomass;Amazon;leaf area index;liana;tropical forest;allometry</t>
+          <t>aboveground biomass; Amazon; leaf area index; liana; tropical forest; allometry</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NATURAL PLANT-COMMUNITIES;PHYTOMASS STRUCTURE;SOUTHERN VENEZUELA;TROPICAL FORESTS;SPODOSOLS;BASIN</t>
+          <t>NATURAL PLANT-COMMUNITIES; PHYTOMASS STRUCTURE; SOUTHERN VENEZUELA; TROPICAL FORESTS; SPODOSOLS; BASIN</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6542,12 +6542,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>forest disturbance;greenhouse gas emissions;livestock grazing;LivSim;smallholder farming;sustainable intensification</t>
+          <t>forest disturbance; greenhouse gas emissions; livestock grazing; LivSim; smallholder farming; sustainable intensification</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SUB-SAHARAN AFRICA;SMALLHOLDER FARMING SYSTEMS;CLIMATE-SMART AGRICULTURE;SUSTAINABLE INTENSIFICATION;MINERAL FERTILIZER;CENTRAL HIGHLANDS;CARBON FOOTPRINT;TROPICAL FORESTS;ENTERIC METHANE;MAIZE YIELD</t>
+          <t>SUB-SAHARAN AFRICA; SMALLHOLDER FARMING SYSTEMS; CLIMATE-SMART AGRICULTURE; SUSTAINABLE INTENSIFICATION; MINERAL FERTILIZER; CENTRAL HIGHLANDS; CARBON FOOTPRINT; TROPICAL FORESTS; ENTERIC METHANE; MAIZE YIELD</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6582,12 +6582,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>anatomical architecture;bending stiffness;Bignonieae;cambial variant;forest disturbance;lianescent vascular syndrome;mechanical properties;plant anatomy;wood vines;Young&amp;#8217;s modulus</t>
+          <t>anatomical architecture; bending stiffness; Bignonieae; cambial variant; forest disturbance; lianescent vascular syndrome; mechanical properties; plant anatomy; wood vines; Young&amp;#8217; s modulus</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>WOOD ANATOMY;CLIMBING PLANTS;GROWTH FORMS;EVOLUTION;BIOMECHANICS;ARCHITECTURE;BIGNONIEAE;PHYLOGENY;DIVERSITY;LIGHT</t>
+          <t>WOOD ANATOMY; CLIMBING PLANTS; GROWTH FORMS; EVOLUTION; BIOMECHANICS; ARCHITECTURE; BIGNONIEAE; PHYLOGENY; DIVERSITY; LIGHT</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6622,12 +6622,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>deforestation;hotspots;tropical forests;Emerging Hotspot Analysis;Earth Observation;Philippines</t>
+          <t>deforestation; hotspots; tropical forests; Emerging Hotspot Analysis; Earth Observation; Philippines</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>TROPICAL DEFORESTATION;FORESTS</t>
+          <t>TROPICAL DEFORESTATION; FORESTS</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>precipitation seasonality;forest disturbance seasonality;Sentinel-1;African rainforest</t>
+          <t>precipitation seasonality; forest disturbance seasonality; Sentinel-1; African rainforest</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CROSS-CORRELATION;CARBON STORAGE;CLIMATE-CHANGE;DRY SEASON;DEFORESTATION;DEGRADATION;DRIVERS;LENGTH</t>
+          <t>CROSS-CORRELATION; CARBON STORAGE; CLIMATE-CHANGE; DRY SEASON; DEFORESTATION; DEGRADATION; DRIVERS; LENGTH</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6702,12 +6702,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Ecosystem modeling;Tropical forests;Carbon fluxes;Ecological resilience;Climate change;Amazonia</t>
+          <t>Ecosystem modeling; Tropical forests; Carbon fluxes; Ecological resilience; Climate change; Amazonia</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>FUNCTIONAL TRAITS;ABOVEGROUND BIOMASS;TREE DIVERSITY;GROWTH;DYNAMICS;CLIMATE;FUTURE;SOIL;COMMUNITY;ECONOMICS</t>
+          <t>FUNCTIONAL TRAITS; ABOVEGROUND BIOMASS; TREE DIVERSITY; GROWTH; DYNAMICS; CLIMATE; FUTURE; SOIL; COMMUNITY; ECONOMICS</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6742,12 +6742,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Amazon;equilibrium;gap;carbon;NEP</t>
+          <t>Amazon; equilibrium; gap; carbon; NEP</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>AMAZON RAIN-FOREST;NEOTROPICAL FOREST;GAP DISTURBANCES;LARGE BLOWDOWNS;PATTERNS</t>
+          <t>AMAZON RAIN-FOREST; NEOTROPICAL FOREST; GAP DISTURBANCES; LARGE BLOWDOWNS; PATTERNS</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6783,7 +6783,7 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ECOSYSTEM DEMOGRAPHY MODEL;DYNAMIC VEGETATION MODEL;TROPICAL RAIN-FOREST;SECONDARY FOREST;TIME-SERIES;NATURAL REGENERATION;ABOVEGROUND BIOMASS;TEMPORAL PATTERNS;LARGE BLOWDOWNS;CLIMATE-CHANGE</t>
+          <t>ECOSYSTEM DEMOGRAPHY MODEL; DYNAMIC VEGETATION MODEL; TROPICAL RAIN-FOREST; SECONDARY FOREST; TIME-SERIES; NATURAL REGENERATION; ABOVEGROUND BIOMASS; TEMPORAL PATTERNS; LARGE BLOWDOWNS; CLIMATE-CHANGE</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6818,12 +6818,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Landsat time-series;forest aboveground biomass;biomass dynamics;change detection</t>
+          <t>Landsat time-series; forest aboveground biomass; biomass dynamics; change detection</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NEAREST-NEIGHBOR IMPUTATION;SURFACE REFLECTANCE;ETM PLUS;STRUCTURE ATTRIBUTES;DISTURBANCE HISTORY;CARBON POOLS;LIDAR PLOTS;INVENTORY;BOREAL;COVER</t>
+          <t>NEAREST-NEIGHBOR IMPUTATION; SURFACE REFLECTANCE; ETM PLUS; STRUCTURE ATTRIBUTES; DISTURBANCE HISTORY; CARBON POOLS; LIDAR PLOTS; INVENTORY; BOREAL; COVER</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6858,12 +6858,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>airborne LiDAR;carbon balance;disturbance;forest type;gap-size frequency distributions;landscape scale;permanent sample plots;southern Peruvian Amazonia;tropical forest</t>
+          <t>airborne LiDAR; carbon balance; disturbance; forest type; gap-size frequency distributions; landscape scale; permanent sample plots; southern Peruvian Amazonia; tropical forest</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>GENERAL QUANTITATIVE THEORY;DETECTING CANOPY GAPS;TROPICAL RAIN-FOREST;SPATIAL-PATTERNS;LARGE BLOWDOWNS;CARBON BALANCE;DYNAMICS;BIOMASS;GROWTH;CLASSIFICATION</t>
+          <t>GENERAL QUANTITATIVE THEORY; DETECTING CANOPY GAPS; TROPICAL RAIN-FOREST; SPATIAL-PATTERNS; LARGE BLOWDOWNS; CARBON BALANCE; DYNAMICS; BIOMASS; GROWTH; CLASSIFICATION</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6898,12 +6898,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Agricultural landscapes;Forest degradation;Fragmentation;Non-native species;Oil palm;Structural equation modelling</t>
+          <t>Agricultural landscapes; Forest degradation; Fragmentation; Non-native species; Oil palm; Structural equation modelling</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>COMMUNITY STRUCTURE;CLIDEMIA-HIRTA;FRAGMENTS;CONSERVATION;ECOLOGY;TREE;BIODIVERSITY;DIVERSITY;METAANALYSIS;DISTURBANCE</t>
+          <t>COMMUNITY STRUCTURE; CLIDEMIA-HIRTA; FRAGMENTS; CONSERVATION; ECOLOGY; TREE; BIODIVERSITY; DIVERSITY; METAANALYSIS; DISTURBANCE</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6938,12 +6938,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Colombia;Choco biogeographic area;diatoms;pollen analysis;sediment analysis;rain forest;vegetation history</t>
+          <t>Colombia; Choco biogeographic area; diatoms; pollen analysis; sediment analysis; rain forest; vegetation history</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;PTERIDOPHYTA;LOWLANDS;NEOGENE;RECORDS;SPORES</t>
+          <t>RAIN-FOREST; PTERIDOPHYTA; LOWLANDS; NEOGENE; RECORDS; SPORES</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6978,12 +6978,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Danum Valley;Dryobalanops lanceolata;forest rehabilitation;high conservation value (HCV);Sabah</t>
+          <t>Danum Valley; Dryobalanops lanceolata; forest rehabilitation; high conservation value (HCV); Sabah</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SPECIES RICHNESS;TREE DIVERSITY;LAND-USE;SABAH;INVERTEBRATES;SECONDARY;EDGE;SIZE;ECTOMYCORRHIZAL;PHOTOSYNTHESIS</t>
+          <t>SPECIES RICHNESS; TREE DIVERSITY; LAND-USE; SABAH; INVERTEBRATES; SECONDARY; EDGE; SIZE; ECTOMYCORRHIZAL; PHOTOSYNTHESIS</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7018,12 +7018,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>leaf morphology;mixed-dipterocarp forest;photosynthesis;physiology;plasticity;shade;Sinharaja;Sri Lanka</t>
+          <t>leaf morphology; mixed-dipterocarp forest; photosynthesis; physiology; plasticity; shade; Sinharaja; Sri Lanka</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>CROWN POSITION;CANOPY GAPS;LIGHT;GROWTH;SEEDLINGS;ANATOMY;MORPHOLOGY;PHOTOSYNTHESIS;PLASTICITY;RESPONSES</t>
+          <t>CROWN POSITION; CANOPY GAPS; LIGHT; GROWTH; SEEDLINGS; ANATOMY; MORPHOLOGY; PHOTOSYNTHESIS; PLASTICITY; RESPONSES</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Wildfire;Drought;Litter;Amazon;Carbon cycling;Nino</t>
+          <t>Wildfire; Drought; Litter; Amazon; Carbon cycling; Nino</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;TROPICAL FOREST;LIFE-SPAN;BIOMASS;CARBON;ALLOCATION;FALL;SUSCEPTIBILITY;DECOMPOSITION;SENSITIVITY</t>
+          <t>RAIN-FOREST; TROPICAL FOREST; LIFE-SPAN; BIOMASS; CARBON; ALLOCATION; FALL; SUSCEPTIBILITY; DECOMPOSITION; SENSITIVITY</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>time series;Andes;breaks for additive season and trend (BFAST);disturbance;tropical forest;multi-angle implementation of atmospheric correction (MAIAC);Landsat</t>
+          <t>time series; Andes; breaks for additive season and trend (BFAST); disturbance; tropical forest; multi-angle implementation of atmospheric correction (MAIAC); Landsat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>LAND-COVER CHANGE;DETECTING TRENDS;PROTECTED AREAS;DEFORESTATION;VEGETATION;PATTERNS;MODIS;CLOUD;BIODIVERSITY;SENSITIVITY</t>
+          <t>LAND-COVER CHANGE; DETECTING TRENDS; PROTECTED AREAS; DEFORESTATION; VEGETATION; PATTERNS; MODIS; CLOUD; BIODIVERSITY; SENSITIVITY</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7138,12 +7138,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>biomass;climber;diversity;forest degradation;growth;productivity</t>
+          <t>biomass; climber; diversity; forest degradation; growth; productivity</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>REDUCE CARBON ACCUMULATION;BARRO-COLORADO ISLAND;TREE REGENERATION;SILVICULTURAL TREATMENTS;FIRE SUSCEPTIBILITY;GROWTH-RATES;IMPACT;GAPS;MANAGEMENT;BIOMASS</t>
+          <t>REDUCE CARBON ACCUMULATION; BARRO-COLORADO ISLAND; TREE REGENERATION; SILVICULTURAL TREATMENTS; FIRE SUSCEPTIBILITY; GROWTH-RATES; IMPACT; GAPS; MANAGEMENT; BIOMASS</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Functional traits;Species composition;Tropical forest;Water-use efficiency;Wood density</t>
+          <t>Functional traits; Species composition; Tropical forest; Water-use efficiency; Wood density</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>MESOSCALE DISTRIBUTION PATTERNS;TREE LIVE BIOMASS;TROPICAL FORESTS;PLANT-COMMUNITIES;SOIL NUTRIENTS;LEAF;ECONOMICS;TRAITS;TOPOGRAPHY;ABUNDANCE</t>
+          <t>MESOSCALE DISTRIBUTION PATTERNS; TREE LIVE BIOMASS; TROPICAL FORESTS; PLANT-COMMUNITIES; SOIL NUTRIENTS; LEAF; ECONOMICS; TRAITS; TOPOGRAPHY; ABUNDANCE</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7218,12 +7218,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bark texture;Ecuador;Epiphytic communities;Forest disturbance;Lichens;Tree species</t>
+          <t>Bark texture; Ecuador; Epiphytic communities; Forest disturbance; Lichens; Tree species</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>TICOLICHEN BIODIVERSITY INVENTORY;MONTANE RAIN-FOREST;WORLD-WIDE KEY;CORTICOLOUS LICHENS;SPECIES COMPOSITION;EPIPHYTIC LICHENS;PHOROPHYTE SPECIFICITY;VASCULAR EPIPHYTES;1ST ASSESSMENT;GENUS GRAPHIS</t>
+          <t>TICOLICHEN BIODIVERSITY INVENTORY; MONTANE RAIN-FOREST; WORLD-WIDE KEY; CORTICOLOUS LICHENS; SPECIES COMPOSITION; EPIPHYTIC LICHENS; PHOROPHYTE SPECIFICITY; VASCULAR EPIPHYTES; 1ST ASSESSMENT; GENUS GRAPHIS</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>epiphyte communities;functional traits;bioindicators;riparian land-use;tropical Andes</t>
+          <t>epiphyte communities; functional traits; bioindicators; riparian land-use; tropical Andes</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>EPIPHYTIC LICHENS;SPECIES RICHNESS;FUNCTIONAL TRAITS;FOREST DISTURBANCE;MONTANE FOREST;AIR-QUALITY;DIVERSITY;INDICATORS;URBANIZATION;GRADIENT</t>
+          <t>EPIPHYTIC LICHENS; SPECIES RICHNESS; FUNCTIONAL TRAITS; FOREST DISTURBANCE; MONTANE FOREST; AIR-QUALITY; DIVERSITY; INDICATORS; URBANIZATION; GRADIENT</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7298,12 +7298,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Tree rings;Disturbance;Spatial pattern;Forest regeneration;Forest dynamics;Dwarf bamboo;Tropical cyclones</t>
+          <t>Tree rings; Disturbance; Spatial pattern; Forest regeneration; Forest dynamics; Dwarf bamboo; Tropical cyclones</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>DWARF-BAMBOO UNDERSTORY;ABIES-BETULA FORESTS;TROPICAL RAIN-FOREST;WITHIN-GAP POSITION;SUB-ALPINE FOREST;CANOPY GAPS;HARDWOOD FOREST;INFREQUENT DISTURBANCES;SIZE DISTRIBUTION;SPATIAL-PATTERNS</t>
+          <t>DWARF-BAMBOO UNDERSTORY; ABIES-BETULA FORESTS; TROPICAL RAIN-FOREST; WITHIN-GAP POSITION; SUB-ALPINE FOREST; CANOPY GAPS; HARDWOOD FOREST; INFREQUENT DISTURBANCES; SIZE DISTRIBUTION; SPATIAL-PATTERNS</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7338,12 +7338,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>forest disturbance;litter nutrient content;litter production;nutrient return;tropical forest</t>
+          <t>forest disturbance; litter nutrient content; litter production; nutrient return; tropical forest</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;ECOSYSTEM DYNAMICS;SAVANNA GRADIENT;FINE LITTERFALL;WESTERN-GHATS;MOIST FOREST;DECOMPOSITION;VEGETATION;TURNOVER;INDIA</t>
+          <t>TROPICAL RAIN-FOREST; ECOSYSTEM DYNAMICS; SAVANNA GRADIENT; FINE LITTERFALL; WESTERN-GHATS; MOIST FOREST; DECOMPOSITION; VEGETATION; TURNOVER; INDIA</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7374,12 +7374,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>forest hydrology;Hurricane Hugo;paired watershed;precipitation;streamflow;water quality;water table;weather</t>
+          <t>forest hydrology; Hurricane Hugo; paired watershed; precipitation; streamflow; water quality; water table; weather</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>COASTAL-PLAIN;RUNOFF RELATIONSHIPS;FLOW DYNAMICS;MODEL;STREAMFLOW;HURRICANE;IMPACTS</t>
+          <t>COASTAL-PLAIN; RUNOFF RELATIONSHIPS; FLOW DYNAMICS; MODEL; STREAMFLOW; HURRICANE; IMPACTS</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7414,12 +7414,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>deforestation;forest degradation;ALOS PALSAR;radar backscatter;forest disturbance detection;Peru</t>
+          <t>deforestation; forest degradation; ALOS PALSAR; radar backscatter; forest disturbance detection; Peru</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>MADRE-DE-DIOS;COVER;BACKSCATTER;BIOMASS;CONCESSIONS;EMISSIONS;FRONTIER;REGION</t>
+          <t>MADRE-DE-DIOS; COVER; BACKSCATTER; BIOMASS; CONCESSIONS; EMISSIONS; FRONTIER; REGION</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7454,12 +7454,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>forest disturbance;multiple linear regression;forest inventory;canopy height;canopy cover;AGB;biophysical factors;socio-economic conditions</t>
+          <t>forest disturbance; multiple linear regression; forest inventory; canopy height; canopy cover; AGB; biophysical factors; socio-economic conditions</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;CARBON EMISSIONS;LANDSAT;DEFORESTATION;DISTURBANCE;VEGETATION;QUANTIFICATION;ATTRIBUTES;LANDSCAPE;DRIVERS</t>
+          <t>ABOVEGROUND BIOMASS; CARBON EMISSIONS; LANDSAT; DEFORESTATION; DISTURBANCE; VEGETATION; QUANTIFICATION; ATTRIBUTES; LANDSCAPE; DRIVERS</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7494,12 +7494,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>synthetic aperture radar;tropical forest;selective logging;C-band;satellite image time series</t>
+          <t>synthetic aperture radar; tropical forest; selective logging; C-band; satellite image time series</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SAR;COVER;COHERENCE</t>
+          <t>SAR; COVER; COHERENCE</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>remote sensing;forest ecosystems;landscape disturbance;Papua New Guinea;land-cover mapping</t>
+          <t>remote sensing; forest ecosystems; landscape disturbance; Papua New Guinea; land-cover mapping</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>REMOTELY-SENSED DATA;SURFACE-TEMPERATURE;LAND</t>
+          <t>REMOTELY-SENSED DATA; SURFACE-TEMPERATURE; LAND</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7574,12 +7574,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>land use and land cover change;time-series;Landsat;South Asia;Sri Lanka;tropical</t>
+          <t>land use and land cover change; time-series; Landsat; South Asia; Sri Lanka; tropical</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;TEMPORAL SEGMENTATION;DETECTING TRENDS;CLASSIFICATION;DYNAMICS;RECOVERY;IMAGERY;AREA;FRAGMENTATION;ATTRIBUTION</t>
+          <t>FOREST DISTURBANCE; TEMPORAL SEGMENTATION; DETECTING TRENDS; CLASSIFICATION; DYNAMICS; RECOVERY; IMAGERY; AREA; FRAGMENTATION; ATTRIBUTION</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7614,12 +7614,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Tropical pastures;land use intensification;fire;tillage;Landsat time-series;Random Forests</t>
+          <t>Tropical pastures; land use intensification; fire; tillage; Landsat time-series; Random Forests</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NORTH CENTRAL MONTANA;FOREST DISTURBANCE;CARBON STOCKS;TILLAGE PRACTICES;VEGETATION INDEX;CROP RESIDUE;LEGAL AMAZON;MATO-GROSSO;COVER;DEFORESTATION</t>
+          <t>NORTH CENTRAL MONTANA; FOREST DISTURBANCE; CARBON STOCKS; TILLAGE PRACTICES; VEGETATION INDEX; CROP RESIDUE; LEGAL AMAZON; MATO-GROSSO; COVER; DEFORESTATION</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7654,12 +7654,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Borneo;Humid tropical forests;Degradation;RapidEye (TM);Co-occurrence measures;Spectral reflectance;Biophysical structure;Maps;Field data</t>
+          <t>Borneo; Humid tropical forests; Degradation; RapidEye (TM); Co-occurrence measures; Spectral reflectance; Biophysical structure; Maps; Field data</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>LEAF-AREA INDEX;ABOVEGROUND BIOMASS ESTIMATION;RESOLUTION GLOBAL-MAPS;ALLOMETRIC MODELS;CARBON STORAGE;WOOD DENSITY;OIL;BIODIVERSITY;DEFORESTATION;DISTURBANCE</t>
+          <t>LEAF-AREA INDEX; ABOVEGROUND BIOMASS ESTIMATION; RESOLUTION GLOBAL-MAPS; ALLOMETRIC MODELS; CARBON STORAGE; WOOD DENSITY; OIL; BIODIVERSITY; DEFORESTATION; DISTURBANCE</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7694,12 +7694,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Mato Grosso;Forest disturbance;Post-deforestation regrowth;Forest degradation</t>
+          <t>Mato Grosso; Forest disturbance; Post-deforestation regrowth; Forest degradation</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>LAND-USE;DEFORESTATION;RECOVERY;AMAZON;COVER;DEGRADATION;EMISSIONS;BIOMASS;AGE;CLASSIFICATION</t>
+          <t>LAND-USE; DEFORESTATION; RECOVERY; AMAZON; COVER; DEGRADATION; EMISSIONS; BIOMASS; AGE; CLASSIFICATION</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7734,12 +7734,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Cloud-free image mosaics;Composite imagery;Merged imagery;Image fusion;Visualization;Change detection;Forest disturbance;Land-cover change;Normalized difference moisture index NDSI;Normalized difference vegetation index NDVI;Normalized difference structure index NDSI;Normalized Difference Infrared Index NDII;Avian habitat;Kirtland's Warbler</t>
+          <t>Cloud-free image mosaics; Composite imagery; Merged imagery; Image fusion; Visualization; Change detection; Forest disturbance; Land-cover change; Normalized difference moisture index NDSI; Normalized difference vegetation index NDVI; Normalized difference structure index NDSI; Normalized Difference Infrared Index NDII; Avian habitat; Kirtland's Warbler</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>DECISION TREE CLASSIFICATION;RADIOMETRIC NORMALIZATION;LEUCAENA-LEUCOCEPHALA;SUCCESSIONAL STAGE;SATELLITE;CANOPY;COVER;MODIS;TRANSFORMATION;DIVERSITY</t>
+          <t>DECISION TREE CLASSIFICATION; RADIOMETRIC NORMALIZATION; LEUCAENA-LEUCOCEPHALA; SUCCESSIONAL STAGE; SATELLITE; CANOPY; COVER; MODIS; TRANSFORMATION; DIVERSITY</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7775,7 +7775,7 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FORESTS;SPECIES-DIVERSITY;BIODIVERSITY;DISTRIBUTIONS;EXTINCTION;PATTERNS;FAMILIES;DYNAMICS</t>
+          <t>TROPICAL RAIN-FORESTS; SPECIES-DIVERSITY; BIODIVERSITY; DISTRIBUTIONS; EXTINCTION; PATTERNS; FAMILIES; DYNAMICS</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7810,12 +7810,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Tree static winching;Critical turning moment;Tree allometry;Functional traits;Blowdown;Wind-disturbance</t>
+          <t>Tree static winching; Critical turning moment; Tree allometry; Functional traits; Blowdown; Wind-disturbance</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;LARGE BLOWDOWNS;NORWAY SPRUCE;WIND EXPOSURE;WOOD DENSITY;SCOTS PINE;STABILITY;GROWTH;CARBON;SUCCESSION</t>
+          <t>FOREST DISTURBANCE; LARGE BLOWDOWNS; NORWAY SPRUCE; WIND EXPOSURE; WOOD DENSITY; SCOTS PINE; STABILITY; GROWTH; CARBON; SUCCESSION</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7850,12 +7850,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Forest degradation;Disturbance mapping;Remote sensing;Time series;Forest monitoring</t>
+          <t>Forest degradation; Disturbance mapping; Remote sensing; Time series; Forest monitoring</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CLOUD SHADOW;ATMOSPHERIC CORRECTION;CARBON EMISSIONS;DETECTING TRENDS;LANDSAT;DEFORESTATION;FRAMEWORK;DYNAMICS;EUROPE;MAP</t>
+          <t>CLOUD SHADOW; ATMOSPHERIC CORRECTION; CARBON EMISSIONS; DETECTING TRENDS; LANDSAT; DEFORESTATION; FRAMEWORK; DYNAMICS; EUROPE; MAP</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Forest gaps;Dynamics;Weed;Vines;Disturbance;Logging</t>
+          <t>Forest gaps; Dynamics; Weed; Vines; Disturbance; Logging</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>TREE SPECIES COMPOSITION;RAIN-FOREST;BRAZILIAN AMAZON;CANOPY GAPS;PLANT;MANAGEMENT;DIVERSITY;IMPACT;REGENERATION;BIODIVERSITY</t>
+          <t>TREE SPECIES COMPOSITION; RAIN-FOREST; BRAZILIAN AMAZON; CANOPY GAPS; PLANT; MANAGEMENT; DIVERSITY; IMPACT; REGENERATION; BIODIVERSITY</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7930,12 +7930,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>space-time;deforestation;dry forest;Landsat;extreme event;data cube</t>
+          <t>space-time; deforestation; dry forest; Landsat; extreme event; data cube</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>TIME-SERIES;FOREST DISTURBANCE;COVER;ACCURACY;CLOUD</t>
+          <t>TIME-SERIES; FOREST DISTURBANCE; COVER; ACCURACY; CLOUD</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Activity data;deforestation;degradation;forest monitoring;Indonesia;mixture tuned matched filtering;RapidEye;REDD;spectral mixture analysis</t>
+          <t>Activity data; deforestation; degradation; forest monitoring; Indonesia; mixture tuned matched filtering; RapidEye; REDD; spectral mixture analysis</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>CARBON EMISSIONS;CO2 EMISSIONS;DEFORESTATION;DEGRADATION;IMAGERY;DAMAGE;COVER</t>
+          <t>CARBON EMISSIONS; CO2 EMISSIONS; DEFORESTATION; DEGRADATION; IMAGERY; DAMAGE; COVER</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8010,12 +8010,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SAR;InSAR;change detection;Sentinel-1;deforestation</t>
+          <t>SAR; InSAR; change detection; Sentinel-1; deforestation</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>COHERENCE;COVER;MAPS</t>
+          <t>COHERENCE; COVER; MAPS</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8050,12 +8050,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Forest cover change;forest degradation;BFAST spatial;trend analysis;Michoacan</t>
+          <t>Forest cover change; forest degradation; BFAST spatial; trend analysis; Michoacan</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>TROPICAL FORESTS;LANDSAT;IMAGERY;SATELLITE;DYNAMICS;TRENDS;AREA;DEFORESTATION;RECOVERY</t>
+          <t>TROPICAL FORESTS; LANDSAT; IMAGERY; SATELLITE; DYNAMICS; TRENDS; AREA; DEFORESTATION; RECOVERY</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8091,7 +8091,7 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>CATASTROPHIC WIND;REGIONAL IMPACTS;HURRICANES;DISTURBANCE;LANDSCAPE;LANDSAT;TERRAIN;PATTERN;REEFS;YASI</t>
+          <t>CATASTROPHIC WIND; REGIONAL IMPACTS; HURRICANES; DISTURBANCE; LANDSCAPE; LANDSAT; TERRAIN; PATTERN; REEFS; YASI</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AsiaFlux;remote sensing;MODIS E-VI;tropical forests;phenology</t>
+          <t>AsiaFlux; remote sensing; MODIS E-VI; tropical forests; phenology</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>GROSS PRIMARY PRODUCTION;AMAZONIAN RAIN-FOREST;EVERGREEN FOREST;DECIDUOUS FOREST;LIGHT-ABSORPTION;LEAF PHENOLOGY;CARBON;CANOPY;MODIS;DEFORESTATION</t>
+          <t>GROSS PRIMARY PRODUCTION; AMAZONIAN RAIN-FOREST; EVERGREEN FOREST; DECIDUOUS FOREST; LIGHT-ABSORPTION; LEAF PHENOLOGY; CARBON; CANOPY; MODIS; DEFORESTATION</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Multispectral data;Tropical cyclones;Tree mortality;Tree species;Topography;Tropical cyclone surface winds</t>
+          <t>Multispectral data; Tropical cyclones; Tree mortality; Tree species; Topography; Tropical cyclone surface winds</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HURRICANE KATRINA;NEW-ENGLAND;CATASTROPHIC WIND;BRAZILIAN AMAZON;REGIONAL IMPACTS;NOAA AVHRR;DAMAGE;VEGETATION;LANDSCAPE;RECOVERY</t>
+          <t>HURRICANE KATRINA; NEW-ENGLAND; CATASTROPHIC WIND; BRAZILIAN AMAZON; REGIONAL IMPACTS; NOAA AVHRR; DAMAGE; VEGETATION; LANDSCAPE; RECOVERY</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8207,7 +8207,7 @@
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;SOIL;DEFORESTATION;EVAPORATION;CHINA;CO2;EVAPOTRANSPIRATION;AFFORESTATION;CATCHMENT;DEBATE</t>
+          <t>TROPICAL RAIN-FOREST; SOIL; DEFORESTATION; EVAPORATION; CHINA; CO2; EVAPOTRANSPIRATION; AFFORESTATION; CATCHMENT; DEBATE</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8242,12 +8242,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>degraded area;forest disturbance;forest succession;Madre de Dios Region;natural regeneration;artisanal gold mining</t>
+          <t>degraded area; forest disturbance; forest succession; Madre de Dios Region; natural regeneration; artisanal gold mining</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NEOTROPICAL FORESTS;FLORISTIC DIVERSITY;ECOSYSTEM SERVICES;SECONDARY FORESTS;RAIN-FORESTS;LAND-USE;CHRONOSEQUENCE;DEFORESTATION;REFORESTATION;COMMUNITIES</t>
+          <t>NEOTROPICAL FORESTS; FLORISTIC DIVERSITY; ECOSYSTEM SERVICES; SECONDARY FORESTS; RAIN-FORESTS; LAND-USE; CHRONOSEQUENCE; DEFORESTATION; REFORESTATION; COMMUNITIES</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Near real-time;Accuracy assessment;Deforestation;Fusion;Time series;CCDC;Landsat;MODIS</t>
+          <t>Near real-time; Accuracy assessment; Deforestation; Fusion; Time series; CCDC; Landsat; MODIS</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ESTIMATING AREA;LANDSAT DATA;SURFACE REFLECTANCE;MODIS;COVER;ACCURACY;FUSION;CLASSIFICATION;DEFORESTATION;RESOLUTION</t>
+          <t>ESTIMATING AREA; LANDSAT DATA; SURFACE REFLECTANCE; MODIS; COVER; ACCURACY; FUSION; CLASSIFICATION; DEFORESTATION; RESOLUTION</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8322,12 +8322,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>cassowary;frugivores;fruiting trees;logging;lowland forest;Papua</t>
+          <t>cassowary; frugivores; fruiting trees; logging; lowland forest; Papua</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>CASSOWARY CASUARIUS-UNAPPENDICULATUS;RAIN-FOREST;HABITAT DISTURBANCE;FRUGIVOROUS BIRDS;SPECIES-DIVERSITY;TROPICAL FORESTS;FRAGMENTATION;ASSEMBLAGES;DENSITIES;FRUITS</t>
+          <t>CASSOWARY CASUARIUS-UNAPPENDICULATUS; RAIN-FOREST; HABITAT DISTURBANCE; FRUGIVOROUS BIRDS; SPECIES-DIVERSITY; TROPICAL FORESTS; FRAGMENTATION; ASSEMBLAGES; DENSITIES; FRUITS</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8362,12 +8362,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>N2O;Forest conversion;Land-use change;Fertilizer;Oil palm;Rubber</t>
+          <t>N2O; Forest conversion; Land-use change; Fertilizer; Oil palm; Rubber</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>LAND-USE CHANGE;ATMOSPHERIC TRACE GASES;OIL PALM PLANTATIONS;FILLED PORE-SPACE;AGRICULTURAL SOILS;JAMBI PROVINCE;BIOGEOCHEMICAL CONTROLS;CARBON-DIOXIDE;N2O PRODUCTION;RAIN-FOREST</t>
+          <t>LAND-USE CHANGE; ATMOSPHERIC TRACE GASES; OIL PALM PLANTATIONS; FILLED PORE-SPACE; AGRICULTURAL SOILS; JAMBI PROVINCE; BIOGEOCHEMICAL CONTROLS; CARBON-DIOXIDE; N2O PRODUCTION; RAIN-FOREST</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8402,12 +8402,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>crater lakes;human disturbance;paleoenvironmental change;palynology;tropical Africa;Uganda</t>
+          <t>crater lakes; human disturbance; paleoenvironmental change; palynology; tropical Africa; Uganda</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>LONG-DISTANCE TRANSPORT;CLIMATE-CHANGE;EAST-AFRICA;ENVIRONMENTAL-CHANGE;MICROSCOPIC CHARCOAL;VEGETATION RESPONSE;DIATOM RECORD;FIRE HISTORY;POLLEN;VARIABILITY</t>
+          <t>LONG-DISTANCE TRANSPORT; CLIMATE-CHANGE; EAST-AFRICA; ENVIRONMENTAL-CHANGE; MICROSCOPIC CHARCOAL; VEGETATION RESPONSE; DIATOM RECORD; FIRE HISTORY; POLLEN; VARIABILITY</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8442,12 +8442,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>agroforestry;canopy gaps;disturbance intensity;fine root biomass;selective logging;vertical root distribution</t>
+          <t>agroforestry; canopy gaps; disturbance intensity; fine root biomass; selective logging; vertical root distribution</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CANOPY GAPS;BIOMASS;DYNAMICS;BEECH;STAND</t>
+          <t>CANOPY GAPS; BIOMASS; DYNAMICS; BEECH; STAND</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8482,12 +8482,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>abundance;anthropogenic disturbance;diversity;lianas;structure;tropical forest</t>
+          <t>abundance; anthropogenic disturbance; diversity; lianas; structure; tropical forest</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>TREE REGENERATION;EVERGREEN FOREST;ABUNDANCE;BIOMASS;GAPS</t>
+          <t>TREE REGENERATION; EVERGREEN FOREST; ABUNDANCE; BIOMASS; GAPS</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8522,12 +8522,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Anthropogenic disturbance;Deforestation;Degradation;Forest-poverty linkages;Provisioning ecosystem services</t>
+          <t>Anthropogenic disturbance; Deforestation; Degradation; Forest-poverty linkages; Provisioning ecosystem services</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ALLOMETRIC RELATIONSHIPS;GROUND BIOMASS;CARBON STOCK;RESOURCE USE;TREE GROWTH;MIDA CREEK;MANAGEMENT;DYNAMICS;PRODUCTIVITY;LESSONS</t>
+          <t>ALLOMETRIC RELATIONSHIPS; GROUND BIOMASS; CARBON STOCK; RESOURCE USE; TREE GROWTH; MIDA CREEK; MANAGEMENT; DYNAMICS; PRODUCTIVITY; LESSONS</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>dynamic model;spatial structure;nonrandom landscape;metapopulation</t>
+          <t>dynamic model; spatial structure; nonrandom landscape; metapopulation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>LAND-USE;METAPOPULATION PERSISTENCE;EXTINCTION THRESHOLDS;RELATIVE IMPORTANCE;FOREST CLEARANCE;VASCULAR PLANTS;COLONIZATION;MIGRATION;HISTORY;FRAGMENTATION</t>
+          <t>LAND-USE; METAPOPULATION PERSISTENCE; EXTINCTION THRESHOLDS; RELATIVE IMPORTANCE; FOREST CLEARANCE; VASCULAR PLANTS; COLONIZATION; MIGRATION; HISTORY; FRAGMENTATION</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8602,12 +8602,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>PHOTOINHIBITION;RAIN-FOREST DISTURBANCE;PHOTOSYNTHESIS;LEAF TURNOVER</t>
+          <t>PHOTOINHIBITION; RAIN-FOREST DISTURBANCE; PHOTOSYNTHESIS; LEAF TURNOVER</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RAIN-FOREST TREES;PHOTOSYNTHETIC REACTIONS;LEAF ANATOMY;SUN-TOLERANT;LIGHT;SEEDLINGS;GROWTH;ACCLIMATION;LEAVES;GAPS</t>
+          <t>RAIN-FOREST TREES; PHOTOSYNTHETIC REACTIONS; LEAF ANATOMY; SUN-TOLERANT; LIGHT; SEEDLINGS; GROWTH; ACCLIMATION; LEAVES; GAPS</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8642,12 +8642,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>growth;saplings;competition;mortality stem breakage;tropical rain forest</t>
+          <t>growth; saplings; competition; mortality stem breakage; tropical rain forest</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>GUYANA;REGENERATION;MORTALITY</t>
+          <t>GUYANA; REGENERATION; MORTALITY</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8682,12 +8682,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Pleistocene;Costa Rica;fossil plants;cuticle;anatomy</t>
+          <t>Pleistocene; Costa Rica; fossil plants; cuticle; anatomy</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>SELVA-BIOLOGICAL-STATION;FOREST DISTURBANCE;MAIZE CULTIVATION;HISTORY;VEGETATION;POLLEN;RECORD;EOCENE;LEAF;LEAVES</t>
+          <t>SELVA-BIOLOGICAL-STATION; FOREST DISTURBANCE; MAIZE CULTIVATION; HISTORY; VEGETATION; POLLEN; RECORD; EOCENE; LEAF; LEAVES</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8718,12 +8718,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>montane forest;modern pollen;Uganda;statistical analysis;Bwindi-Impenetrable Forest</t>
+          <t>montane forest; modern pollen; Uganda; statistical analysis; Bwindi-Impenetrable Forest</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>DETRENDED CORRESPONDENCE;CENTRAL-AFRICA;RAIN-FOREST;VEGETATION;SPECTRA;HIGHLANDS;ARGENTINA;DYNAMICS;HOLOCENE;BURUNDI</t>
+          <t>DETRENDED CORRESPONDENCE; CENTRAL-AFRICA; RAIN-FOREST; VEGETATION; SPECTRA; HIGHLANDS; ARGENTINA; DYNAMICS; HOLOCENE; BURUNDI</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8758,12 +8758,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Tropical rainforest;non-timber forest products (NTFP);population density;distribution;forest management</t>
+          <t>Tropical rainforest; non-timber forest products (NTFP); population density; distribution; forest management</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>IRVINGIA-GABONENSIS;DOMESTICATION</t>
+          <t>IRVINGIA-GABONENSIS; DOMESTICATION</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>lake sediments;pollen;charcoal;forest disturbance;lowland rainforest;human impact;indigenous agriculture;Zea;vegetation;preColumbian;Costa Rica</t>
+          <t>lake sediments; pollen; charcoal; forest disturbance; lowland rainforest; human impact; indigenous agriculture; Zea; vegetation; preColumbian; Costa Rica</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>PRECISION BIDECADAL CALIBRATION;RADIOCARBON TIME SCALE;SEDIMENTS;HISTORY;PANAMA;OCCUPATION;AMERICA;MAIZE;BC</t>
+          <t>PRECISION BIDECADAL CALIBRATION; RADIOCARBON TIME SCALE; SEDIMENTS; HISTORY; PANAMA; OCCUPATION; AMERICA; MAIZE; BC</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8838,12 +8838,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>insect attacks;forest disturbance;natural regeneration;Cameroon</t>
+          <t>insect attacks; forest disturbance; natural regeneration; Cameroon</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;ABUNDANCE;TREES</t>
+          <t>RAIN-FOREST; ABUNDANCE; TREES</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8878,12 +8878,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Forest disturbance;Site preparation;Hazard reduction;Fire behavior;Masticated debris</t>
+          <t>Forest disturbance; Site preparation; Hazard reduction; Fire behavior; Masticated debris</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>PREDICTED FIRE BEHAVIOR;MOUNTAIN PINE;APPALACHIAN MOUNTAINS;MECHANICAL MASTICATION;REDUCTION TREATMENTS;VEGETATION RESPONSE;MOISTURE-CONTENT;CROWN FIRE;FOREST;CAROLINA</t>
+          <t>PREDICTED FIRE BEHAVIOR; MOUNTAIN PINE; APPALACHIAN MOUNTAINS; MECHANICAL MASTICATION; REDUCTION TREATMENTS; VEGETATION RESPONSE; MOISTURE-CONTENT; CROWN FIRE; FOREST; CAROLINA</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8919,7 +8919,7 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>MULU-NATIONAL-PARK;RAIN FORESTS;SARAWAK;ENVIRONMENT;FLORISTICS</t>
+          <t>MULU-NATIONAL-PARK; RAIN FORESTS; SARAWAK; ENVIRONMENT; FLORISTICS</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8954,12 +8954,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Carbon sequestration;Carbon stocks;Soil organic carbon;Mt Marsabit forest</t>
+          <t>Carbon sequestration; Carbon stocks; Soil organic carbon; Mt Marsabit forest</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>BIOMASS;DIVERSITY;DEFORESTATION;MANAGEMENT;INVENTORY</t>
+          <t>BIOMASS; DIVERSITY; DEFORESTATION; MANAGEMENT; INVENTORY</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -8994,12 +8994,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Spaceborne InSAR;Tropical selective logging;Fire;Forest disturbance;TanDEM-X;ALOS-2</t>
+          <t>Spaceborne InSAR; Tropical selective logging; Fire; Forest disturbance; TanDEM-X; ALOS-2</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>TANDEM-X INSAR;BIOMASS ESTIMATION;BOREAL FOREST;REDUCED-IMPACT;CARBON;HEIGHT;BAND;DEGRADATION;PERFORMANCE;DISTURBANCE</t>
+          <t>TANDEM-X INSAR; BIOMASS ESTIMATION; BOREAL FOREST; REDUCED-IMPACT; CARBON; HEIGHT; BAND; DEGRADATION; PERFORMANCE; DISTURBANCE</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9062,12 +9062,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>LiDAR;Selective logging;Remote sensing;Random forest;Malaysia</t>
+          <t>LiDAR; Selective logging; Remote sensing; Random forest; Malaysia</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;EAST KALIMANTAN;AIRBORNE LIDAR;AREA INDEX;LAND-USE;CARBON;BIODIVERSITY;BORNEO;SABAH;DANUM</t>
+          <t>RAIN-FOREST; EAST KALIMANTAN; AIRBORNE LIDAR; AREA INDEX; LAND-USE; CARBON; BIODIVERSITY; BORNEO; SABAH; DANUM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9102,12 +9102,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Amazon;biomass;edge effects;forest dynamics;habitat fragmentation;liana communities;tree infestation;tropical rainforest;tree mortality;vines</t>
+          <t>Amazon; biomass; edge effects; forest dynamics; habitat fragmentation; liana communities; tree infestation; tropical rainforest; tree mortality; vines</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>TIERRA-FIRME FOREST;TROPICAL FOREST;NATIONAL-PARK;BIOMASS;TREES;DISTURBANCE;DIVERSITY;MORTALITY;DYNAMICS;SARAWAK</t>
+          <t>TIERRA-FIRME FOREST; TROPICAL FOREST; NATIONAL-PARK; BIOMASS; TREES; DISTURBANCE; DIVERSITY; MORTALITY; DYNAMICS; SARAWAK</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9142,12 +9142,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Alnus;climate change;climate variability;ecotone;fire ecology;forest dynamics;tropical montane forests</t>
+          <t>Alnus; climate change; climate variability; ecotone; fire ecology; forest dynamics; tropical montane forests</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;CLIMATE-CHANGE;SOUTH-AMERICA;PATAGONIA;SAVANNA;HISTORY;ECOTONE</t>
+          <t>FOREST DISTURBANCE; CLIMATE-CHANGE; SOUTH-AMERICA; PATAGONIA; SAVANNA; HISTORY; ECOTONE</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9183,7 +9183,7 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>TROPICAL DEFORESTATION;ABOVEGROUND BIOMASS;SATELLITE</t>
+          <t>TROPICAL DEFORESTATION; ABOVEGROUND BIOMASS; SATELLITE</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9218,12 +9218,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>mekong river;cambodia;tropical deforestation;random forest;landsat;land-use;land-cover;change analysis;flooded forest;hydropower dams</t>
+          <t>mekong river; cambodia; tropical deforestation; random forest; landsat; land-use; land-cover; change analysis; flooded forest; hydropower dams</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;COMMUNITY FORESTRY;PROTECTED AREAS;CLIMATE-CHANGE;COVER LOSS;HYDROPOWER;WATER;FLOW;PERFORMANCE;GOVERNANCE</t>
+          <t>FOREST DISTURBANCE; COMMUNITY FORESTRY; PROTECTED AREAS; CLIMATE-CHANGE; COVER LOSS; HYDROPOWER; WATER; FLOW; PERFORMANCE; GOVERNANCE</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9258,12 +9258,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Landsat;Land trajectories;Swidden agriculture;Segmentation;Time-series;Land use history;Slash and burn agriculture</t>
+          <t>Landsat; Land trajectories; Swidden agriculture; Segmentation; Time-series; Land use history; Slash and burn agriculture</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>SHIFTING CULTIVATION;FOREST DISTURBANCE;TROPICAL FORESTS;DYNAMICS;TRENDS;COVER;DEFORESTATION;RESILIENCE;MISSION;CLOUD</t>
+          <t>SHIFTING CULTIVATION; FOREST DISTURBANCE; TROPICAL FORESTS; DYNAMICS; TRENDS; COVER; DEFORESTATION; RESILIENCE; MISSION; CLOUD</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9298,12 +9298,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Landsat;Time series;Deforestation;Brazil;Compositing;Amazon;Random Forest;LGAC</t>
+          <t>Landsat; Time series; Deforestation; Brazil; Compositing; Amazon; Random Forest; LGAC</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;CARBON EMISSIONS;DETECTING TRENDS;AMAZON;COVER;CLOUD;CALIBRATION;SECONDARY;MODIS;ETM+</t>
+          <t>FOREST DISTURBANCE; CARBON EMISSIONS; DETECTING TRENDS; AMAZON; COVER; CLOUD; CALIBRATION; SECONDARY; MODIS; ETM+</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9339,7 +9339,7 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>SPECIES COMPOSITION;BRAZILIAN AMAZON;RAIN-FOREST;BIODIVERSITY;DIVERSITY;SECONDARY;ECOSYSTEMS;SUCCESSION;ENVIRONMENT;LANDSCAPES</t>
+          <t>SPECIES COMPOSITION; BRAZILIAN AMAZON; RAIN-FOREST; BIODIVERSITY; DIVERSITY; SECONDARY; ECOSYSTEMS; SUCCESSION; ENVIRONMENT; LANDSCAPES</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9374,12 +9374,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ASTER;Bolivian Amazon;felling gaps;forest disturbance;forest structure;NDVI;remote-sensing monitoring;selective logging;skid trails;spectral mixture analysis;timber harvest;tropical forest</t>
+          <t>ASTER; Bolivian Amazon; felling gaps; forest disturbance; forest structure; NDVI; remote-sensing monitoring; selective logging; skid trails; spectral mixture analysis; timber harvest; tropical forest</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>TREE REGENERATION;CANOPY DAMAGE;AMAZON;VEGETATION;IMPACTS</t>
+          <t>TREE REGENERATION; CANOPY DAMAGE; AMAZON; VEGETATION; IMPACTS</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9414,12 +9414,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Land use;Forest succession;Biodiversity conservation;Borneo;LandTrendr</t>
+          <t>Land use; Forest succession; Biodiversity conservation; Borneo; LandTrendr</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>WOODY PLANT DIVERSITY;SECONDARY FOREST;RAIN-FOREST;SHIFTING CULTIVATION;SPECIES COMPOSITION;STRUCTURAL PATTERNS;TEMPORAL PATTERNS;BARK BEETLE;BIODIVERSITY;SUCCESSION</t>
+          <t>WOODY PLANT DIVERSITY; SECONDARY FOREST; RAIN-FOREST; SHIFTING CULTIVATION; SPECIES COMPOSITION; STRUCTURAL PATTERNS; TEMPORAL PATTERNS; BARK BEETLE; BIODIVERSITY; SUCCESSION</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>canopy openness;early-successional trees;forest regeneration;late-successional trees;selective logging;tropical forest</t>
+          <t>canopy openness; early-successional trees; forest regeneration; late-successional trees; selective logging; tropical forest</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;RECRUITMENT LIMITATION;SPECIES-DIVERSITY;LOCAL DISTURBANCE;PRUNUS-AFRICANA;KAKAMEGA-FOREST;SEED DISPERSAL;FRAGMENTATION;REGENERATION;MANAGEMENT</t>
+          <t>RAIN-FOREST; RECRUITMENT LIMITATION; SPECIES-DIVERSITY; LOCAL DISTURBANCE; PRUNUS-AFRICANA; KAKAMEGA-FOREST; SEED DISPERSAL; FRAGMENTATION; REGENERATION; MANAGEMENT</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Forest disturbance;Habitat fragmentation;Resilience;Secondary forest;Seed rain;Slash-and-burn agriculture</t>
+          <t>Forest disturbance; Habitat fragmentation; Resilience; Secondary forest; Seed rain; Slash-and-burn agriculture</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FORESTS;DISPERSAL;BIODIVERSITY;COMMUNITIES;DIVERSITY;FRAGMENTS;EDGE;DEFORESTATION;CONSERVATION;ASSEMBLAGES</t>
+          <t>TROPICAL RAIN-FORESTS; DISPERSAL; BIODIVERSITY; COMMUNITIES; DIVERSITY; FRAGMENTS; EDGE; DEFORESTATION; CONSERVATION; ASSEMBLAGES</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -9534,12 +9534,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Diversity;Edge effects;Forest fragmentation;Growth;Human disturbance;Land-use change;Microclimate;Population dynamics;Scattered trees;Survivorship</t>
+          <t>Diversity; Edge effects; Forest fragmentation; Growth; Human disturbance; Land-use change; Microclimate; Population dynamics; Scattered trees; Survivorship</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>WITHIN-CANOPY DISTRIBUTION;BROMELIAD COMMUNITIES;POPULATION-DYNAMICS;ANDEAN LANDSCAPE;SPECIES RICHNESS;WATER RELATIONS;RAIN-FOREST;DIVERSITY;CONSERVATION;DISTURBANCE</t>
+          <t>WITHIN-CANOPY DISTRIBUTION; BROMELIAD COMMUNITIES; POPULATION-DYNAMICS; ANDEAN LANDSCAPE; SPECIES RICHNESS; WATER RELATIONS; RAIN-FOREST; DIVERSITY; CONSERVATION; DISTURBANCE</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9574,12 +9574,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Selective logging;Tropical forest;Carbon emissions;Logging damage</t>
+          <t>Selective logging; Tropical forest; Carbon emissions; Logging damage</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>SWIETENIA-MACROPHYLLA KING;TROPICAL FOREST;QUINTANA-ROO;EAST KALIMANTAN;PROTECTED AREAS;BIOMASS;CERTIFICATION;CONSERVATION;RECOVERY;STOCKS</t>
+          <t>SWIETENIA-MACROPHYLLA KING; TROPICAL FOREST; QUINTANA-ROO; EAST KALIMANTAN; PROTECTED AREAS; BIOMASS; CERTIFICATION; CONSERVATION; RECOVERY; STOCKS</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -9614,12 +9614,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>remote sensing;geostatistics;seasonality;LULCC</t>
+          <t>remote sensing; geostatistics; seasonality; LULCC</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>LANDSAT TIME-SERIES;IMAGE CLASSIFICATION;FOREST DISTURBANCE;BRAZILIAN CERRADO;ALGORITHMS;CAATINGA;MACHINE;AREA;SEMIVARIOGRAMS;DEFORESTATION</t>
+          <t>LANDSAT TIME-SERIES; IMAGE CLASSIFICATION; FOREST DISTURBANCE; BRAZILIAN CERRADO; ALGORITHMS; CAATINGA; MACHINE; AREA; SEMIVARIOGRAMS; DEFORESTATION</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -9654,12 +9654,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>biomass accumulation rate;fire;forest perturbation;forest structure;wood specific gravity</t>
+          <t>biomass accumulation rate; fire; forest perturbation; forest structure; wood specific gravity</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>TROPICAL DRY FOREST;WOOD DENSITY;RAIN-FOREST;CARBON SEQUESTRATION;SHIFTING CULTIVATION;SPATIAL-DISTRIBUTION;NEOTROPICAL FOREST;NORTHERN YUCATAN;QUINTANA-ROO;LAND-USE</t>
+          <t>TROPICAL DRY FOREST; WOOD DENSITY; RAIN-FOREST; CARBON SEQUESTRATION; SHIFTING CULTIVATION; SPATIAL-DISTRIBUTION; NEOTROPICAL FOREST; NORTHERN YUCATAN; QUINTANA-ROO; LAND-USE</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -9694,12 +9694,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>alternating temperatures;banana;crop wild relatives;forest disturbance;gap detection;Musa;seed germination</t>
+          <t>alternating temperatures; banana; crop wild relatives; forest disturbance; gap detection; Musa; seed germination</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>DESICCATION-TOLERANCE;ECOLOGY;BALBISIANA;PATTERNS;ANATOMY;IDENTIFICATION;SCARIFICATION;POLLINATION;IMBIBITION;DISPERSAL</t>
+          <t>DESICCATION-TOLERANCE; ECOLOGY; BALBISIANA; PATTERNS; ANATOMY; IDENTIFICATION; SCARIFICATION; POLLINATION; IMBIBITION; DISPERSAL</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Coarse woody detritus;Decomposition;Forest carbon balance;Forest disturbance consequences;Heterotrophic respiration;Tree mortality effects</t>
+          <t>Coarse woody detritus; Decomposition; Forest carbon balance; Forest disturbance consequences; Heterotrophic respiration; Tree mortality effects</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>TREE MORTALITY;CLIMATE-CHANGE;DECOMPOSITION RATES;DOUGLAS-FIR;DECAY-RATES;TROPICAL FORESTS;BOREAL FORESTS;CONIFER LOGS;DEAD TREES;DEBRIS</t>
+          <t>TREE MORTALITY; CLIMATE-CHANGE; DECOMPOSITION RATES; DOUGLAS-FIR; DECAY-RATES; TROPICAL FORESTS; BOREAL FORESTS; CONIFER LOGS; DEAD TREES; DEBRIS</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -9774,12 +9774,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>forest degradation;deforestation;change detection;Sentinel-1;biomass mapping;Synthetic Aperture Radar;radar;logging</t>
+          <t>forest degradation; deforestation; change detection; Sentinel-1; biomass mapping; Synthetic Aperture Radar; radar; logging</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>SENTINEL-1 TIME-SERIES;ABOVEGROUND BIOMASS;CARBON EMISSIONS;DEFORESTATION;DEGRADATION;BACKSCATTER;WOODLANDS;AMAZONIA;MODELS;COVER</t>
+          <t>SENTINEL-1 TIME-SERIES; ABOVEGROUND BIOMASS; CARBON EMISSIONS; DEFORESTATION; DEGRADATION; BACKSCATTER; WOODLANDS; AMAZONIA; MODELS; COVER</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -9815,7 +9815,7 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>TIME-SERIES;NATURAL DISTURBANCE;SECONDARY FOREST;TROPICAL FOREST;LAND-COVER;WIND-SPEED;IMPACTS;MODIS;LANDSCAPE;DAMAGE</t>
+          <t>TIME-SERIES; NATURAL DISTURBANCE; SECONDARY FOREST; TROPICAL FOREST; LAND-COVER; WIND-SPEED; IMPACTS; MODIS; LANDSCAPE; DAMAGE</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Population density;Settlement density;Remote sensing and GIS;Palamau Tiger Reserve</t>
+          <t>Population density; Settlement density; Remote sensing and GIS; Palamau Tiger Reserve</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>PROTECTED AREAS;GEOINFORMATICS;DYNAMICS</t>
+          <t>PROTECTED AREAS; GEOINFORMATICS; DYNAMICS</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -9890,12 +9890,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>multispectral data;complex mountainous terrain;tropical rainforests;tropical cyclones;forest disturbance</t>
+          <t>multispectral data; complex mountainous terrain; tropical rainforests; tropical cyclones; forest disturbance</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>LANDSAT DATA;WET TROPICS;MODIS;DAMAGE;WIND;REFLECTANCE;LANDSCAPE;LARRY;HURRICANES;RECOVERY</t>
+          <t>LANDSAT DATA; WET TROPICS; MODIS; DAMAGE; WIND; REFLECTANCE; LANDSCAPE; LARRY; HURRICANES; RECOVERY</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -9931,7 +9931,7 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>LAND-COVER;MADAGASCAR;DEFORESTATION;BIODIVERSITY;CONSERVATION;DEGRADATION;DISTURBANCE;DRIVERS;CLIMATE;REGION</t>
+          <t>LAND-COVER; MADAGASCAR; DEFORESTATION; BIODIVERSITY; CONSERVATION; DEGRADATION; DISTURBANCE; DRIVERS; CLIMATE; REGION</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -9966,12 +9966,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Tropical forest disturbance;Selective logging;Shifting cultivation;Satellite data;Indochina peninsula;Maritime continent</t>
+          <t>Tropical forest disturbance; Selective logging; Shifting cultivation; Satellite data; Indochina peninsula; Maritime continent</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>TIME-SERIES;ABOVEGROUND BIOMASS;TROPICAL FORESTS;LANDSAT IMAGERY;CANOPY DAMAGE;SAR IMAGERY;COVER;FIRE;DEFORESTATION;AMAZON</t>
+          <t>TIME-SERIES; ABOVEGROUND BIOMASS; TROPICAL FORESTS; LANDSAT IMAGERY; CANOPY DAMAGE; SAR IMAGERY; COVER; FIRE; DEFORESTATION; AMAZON</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10006,12 +10006,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>forest disturbance;illegal logging;forest fires;shifting cultivation;fuelwood collection;pests;hurricanes;tsunamis;over-hunting;time series analysis;spectral mixture analysis;satellite images</t>
+          <t>forest disturbance; illegal logging; forest fires; shifting cultivation; fuelwood collection; pests; hurricanes; tsunamis; over-hunting; time series analysis; spectral mixture analysis; satellite images</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>MOUNTAIN PINE-BEETLE;NDVI TIME-SERIES;LAND-USE;L-BAND;TROPICAL FORESTS;BURN SEVERITY;DETECTING TRENDS;HIGH-RESOLUTION;EASTERN AMAZON;COVER LOSS</t>
+          <t>MOUNTAIN PINE-BEETLE; NDVI TIME-SERIES; LAND-USE; L-BAND; TROPICAL FORESTS; BURN SEVERITY; DETECTING TRENDS; HIGH-RESOLUTION; EASTERN AMAZON; COVER LOSS</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10046,12 +10046,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Tropical Forest Disturbance;Selective Logging;Forest Degradation;Forest Canopy Gaps;Disturbance Mapping;Remote Sensing;Forest Monitoring</t>
+          <t>Tropical Forest Disturbance; Selective Logging; Forest Degradation; Forest Canopy Gaps; Disturbance Mapping; Remote Sensing; Forest Monitoring</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>EARTH OBSERVATION DATA;AIRBORNE LIDAR;MULTITEMPORAL ANALYSIS;ABOVEGROUND BIOMASS;SATELLITE IMAGES;SAR BACKSCATTER;LOGGED FORESTS;CANOPY DAMAGE;LANDSAT;DEGRADATION</t>
+          <t>EARTH OBSERVATION DATA; AIRBORNE LIDAR; MULTITEMPORAL ANALYSIS; ABOVEGROUND BIOMASS; SATELLITE IMAGES; SAR BACKSCATTER; LOGGED FORESTS; CANOPY DAMAGE; LANDSAT; DEGRADATION</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10086,12 +10086,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>statistical estimator;IPCC good practice guidelines;activity data;emissions factor;removals factor</t>
+          <t>statistical estimator; IPCC good practice guidelines; activity data; emissions factor; removals factor</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>MODEL-ASSISTED ESTIMATION;LAND-COVER CHANGE;POST-STRATIFIED ESTIMATION;GROUND REFERENCE DATA;FOREST DISTURBANCE;ESTIMATING AREA;ABOVEGROUND BIOMASS;ACCURACY ASSESSMENT;TIME-SERIES;SAMPLE SURVEY</t>
+          <t>MODEL-ASSISTED ESTIMATION; LAND-COVER CHANGE; POST-STRATIFIED ESTIMATION; GROUND REFERENCE DATA; FOREST DISTURBANCE; ESTIMATING AREA; ABOVEGROUND BIOMASS; ACCURACY ASSESSMENT; TIME-SERIES; SAMPLE SURVEY</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10126,12 +10126,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Barro Colorado Island;canopy disturbance;determinants of plant community diversity and structure;habitat association;liana community;light detection and ranging;soil resources;topography;treefall gap</t>
+          <t>Barro Colorado Island; canopy disturbance; determinants of plant community diversity and structure; habitat association; liana community; light detection and ranging; soil resources; topography; treefall gap</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>BARRO-COLORADO ISLAND;TROPICAL RAIN-FORESTS;LONG-TERM PLOTS;DROUGHT SENSITIVITY;TREE REGENERATION;LOWLAND FOREST;NATIONAL-PARK;PATTERNS;DIVERSITY;PANAMA</t>
+          <t>BARRO-COLORADO ISLAND; TROPICAL RAIN-FORESTS; LONG-TERM PLOTS; DROUGHT SENSITIVITY; TREE REGENERATION; LOWLAND FOREST; NATIONAL-PARK; PATTERNS; DIVERSITY; PANAMA</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10166,12 +10166,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Disturbance index;HOF model;Intermediate disturbance hypothesis;Rainfall;Selective logging;Species density;Species richness;Wood density</t>
+          <t>Disturbance index; HOF model; Intermediate disturbance hypothesis; Rainfall; Selective logging; Species density; Species richness; Wood density</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>WOOD DENSITY;RAIN-FORESTS;PLANT DIVERSITY;HYPOTHESIS;CONSERVATION;BIODIVERSITY;SUCCESSION;MANAGEMENT;PATTERNS</t>
+          <t>WOOD DENSITY; RAIN-FORESTS; PLANT DIVERSITY; HYPOTHESIS; CONSERVATION; BIODIVERSITY; SUCCESSION; MANAGEMENT; PATTERNS</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10206,12 +10206,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Beta diversity;Deforestation;Fragmentation;Human disturbance;Isolated trees;Land-use change;Microclimate;Secondary forest;Species richness;Species turnover</t>
+          <t>Beta diversity; Deforestation; Fragmentation; Human disturbance; Isolated trees; Land-use change; Microclimate; Secondary forest; Species richness; Species turnover</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>SPECIES RICHNESS;BROMELIAD COMMUNITIES;TROPICAL FORESTS;ANDEAN FORESTS;BETA DIVERSITY;CLIMATE-CHANGE;NICHE BREADTH;OAK FORESTS;RANGE SIZE;HABITAT</t>
+          <t>SPECIES RICHNESS; BROMELIAD COMMUNITIES; TROPICAL FORESTS; ANDEAN FORESTS; BETA DIVERSITY; CLIMATE-CHANGE; NICHE BREADTH; OAK FORESTS; RANGE SIZE; HABITAT</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10246,12 +10246,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>conservation;disturbance gradient;floristic inventory;forest fragmentation;terrestrial herbs</t>
+          <t>conservation; disturbance gradient; floristic inventory; forest fragmentation; terrestrial herbs</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>SPECIES RICHNESS;RAIN-FOREST;ALTITUDINAL GRADIENTS;GROUND HERBS;LOS TUXTLAS;DIVERSITY;BIODIVERSITY;VEGETATION;STRATEGIES;CHECKLIST</t>
+          <t>SPECIES RICHNESS; RAIN-FOREST; ALTITUDINAL GRADIENTS; GROUND HERBS; LOS TUXTLAS; DIVERSITY; BIODIVERSITY; VEGETATION; STRATEGIES; CHECKLIST</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10287,7 +10287,7 @@
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>SWIETENIA MACROPHYLLA KING;LARGE-WOOD;HEADWATER STREAM;LARGE BLOWDOWNS;FORELAND BASIN;RAIN-FOREST;DISTURBANCE;DYNAMICS;SUCCESSION;SEDIMENT</t>
+          <t>SWIETENIA MACROPHYLLA KING; LARGE-WOOD; HEADWATER STREAM; LARGE BLOWDOWNS; FORELAND BASIN; RAIN-FOREST; DISTURBANCE; DYNAMICS; SUCCESSION; SEDIMENT</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10322,12 +10322,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Landsat;Time series analysis;Tropical forests;Disturbance monitoring;Change detection;BEAST Monitor</t>
+          <t>Landsat; Time series analysis; Tropical forests; Disturbance monitoring; Change detection; BEAST Monitor</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>AFROMONTANE FORESTS;DETECTING TRENDS;SATELLITE DATA;DEFORESTATION;COVER;NDVI;CLASSIFICATION;COMPOSITES;MANAGEMENT;PATTERNS</t>
+          <t>AFROMONTANE FORESTS; DETECTING TRENDS; SATELLITE DATA; DEFORESTATION; COVER; NDVI; CLASSIFICATION; COMPOSITES; MANAGEMENT; PATTERNS</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10362,12 +10362,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Near real time deforestation;Sentinel-1;Forest alert;Optical-SAR comparison;Tropical forest;French Guiana</t>
+          <t>Near real time deforestation; Sentinel-1; Forest alert; Optical-SAR comparison; Tropical forest; French Guiana</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>DEFORESTATION;CARBON;AREA;SATELLITE;AMAZON</t>
+          <t>DEFORESTATION; CARBON; AREA; SATELLITE; AMAZON</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Amazon rainforest;deforestation;forest degradation;forest remote sensing;Landsat;terrestrial carbon cycle;time series analysis</t>
+          <t>Amazon rainforest; deforestation; forest degradation; forest remote sensing; Landsat; terrestrial carbon cycle; time series analysis</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>TROPICAL FORESTS;ESTIMATING AREA;DEFORESTATION;MAP;EMISSIONS;ACCURACY</t>
+          <t>TROPICAL FORESTS; ESTIMATING AREA; DEFORESTATION; MAP; EMISSIONS; ACCURACY</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -10442,12 +10442,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>tropical forest;plant ecology;restoration;forest management;forest disturbance;seedling mortality</t>
+          <t>tropical forest; plant ecology; restoration; forest management; forest disturbance; seedling mortality</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>DIPTEROCARP FOREST;DRY FORESTS;REGENERATION;SURVIVAL;GROWTH;RESTORATION;SUCCESSION;PLANTATION;DISPERSAL;RICHNESS</t>
+          <t>DIPTEROCARP FOREST; DRY FORESTS; REGENERATION; SURVIVAL; GROWTH; RESTORATION; SUCCESSION; PLANTATION; DISPERSAL; RICHNESS</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -10482,12 +10482,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>forest disturbance;forest dynamics;seedling survival;seedling growth;seedling recruitment;tropical forest</t>
+          <t>forest disturbance; forest dynamics; seedling survival; seedling growth; seedling recruitment; tropical forest</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;LITTER DECOMPOSITION;SAVANNA GRADIENT;SOIL PROPERTIES;WET FORESTS;LEAF LITTER;COSTA-RICA;GROWTH;REGENERATION;SURVIVAL</t>
+          <t>TROPICAL RAIN-FOREST; LITTER DECOMPOSITION; SAVANNA GRADIENT; SOIL PROPERTIES; WET FORESTS; LEAF LITTER; COSTA-RICA; GROWTH; REGENERATION; SURVIVAL</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -10518,12 +10518,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Brazil;Selective harvesting;Remote sensing;Tropical forest disturbance;MODIS</t>
+          <t>Brazil; Selective harvesting; Remote sensing; Tropical forest disturbance; MODIS</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>LOGGED FORESTS;CANOPY DAMAGE;RAIN-FOREST;DEGRADATION;VEGETATION;INDEXES;WATER</t>
+          <t>LOGGED FORESTS; CANOPY DAMAGE; RAIN-FOREST; DEGRADATION; VEGETATION; INDEXES; WATER</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -10558,12 +10558,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Amazonia;deforestation;forest disturbance;shifting cultivation;forest fallows</t>
+          <t>Amazonia; deforestation; forest disturbance; shifting cultivation; forest fallows</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>TROPICAL FORESTS;DEFORESTATION;LANDSCAPES;LABOR</t>
+          <t>TROPICAL FORESTS; DEFORESTATION; LANDSCAPES; LABOR</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -10598,12 +10598,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>tropical forests;logging;oil palm;leaf litter decomposition;soil microbial communities;functional dissimilarity</t>
+          <t>tropical forests; logging; oil palm; leaf litter decomposition; soil microbial communities; functional dissimilarity</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>HOME-FIELD ADVANTAGE;OIL PALM AGRICULTURE;LEAF-LITTER;RAIN-FOREST;LAND-USE;FUNCTIONAL-SIGNIFICANCE;NUTRIENT LIMITATION;TRAITS PREDICT;RATES;DIVERSITY</t>
+          <t>HOME-FIELD ADVANTAGE; OIL PALM AGRICULTURE; LEAF-LITTER; RAIN-FOREST; LAND-USE; FUNCTIONAL-SIGNIFICANCE; NUTRIENT LIMITATION; TRAITS PREDICT; RATES; DIVERSITY</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -10638,12 +10638,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>tropical forests;pasture;cropland;soil carbon;stable isotopes;SOM physical fractions</t>
+          <t>tropical forests; pasture; cropland; soil carbon; stable isotopes; SOM physical fractions</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>CARBON STOCKS;MANAGEMENT;NITROGEN;PASTURE;FRACTIONS;AGRICULTURE;CONVERSION;DYNAMICS;SYSTEMS;POOLS</t>
+          <t>CARBON STOCKS; MANAGEMENT; NITROGEN; PASTURE; FRACTIONS; AGRICULTURE; CONVERSION; DYNAMICS; SYSTEMS; POOLS</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -10678,12 +10678,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Soil seed bank;Central African rainforest;Forest disturbance;Pioneer species;Climax species;Forest resilience</t>
+          <t>Soil seed bank; Central African rainforest; Forest disturbance; Pioneer species; Climax species; Forest resilience</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST;SPECIES COMPOSITION;GAP-PHASE;DYNAMICS;REGENERATION;RESTORATION;DISTURBANCE;VEGETATION;DISPERSAL;AUSTRALIA</t>
+          <t>TROPICAL FOREST; SPECIES COMPOSITION; GAP-PHASE; DYNAMICS; REGENERATION; RESTORATION; DISTURBANCE; VEGETATION; DISPERSAL; AUSTRALIA</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -10718,12 +10718,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>soil seed bank;pioneer species;tropical seasonal forest;forest disturbance;natural regeneration</t>
+          <t>soil seed bank; pioneer species; tropical seasonal forest; forest disturbance; natural regeneration</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>PIONEER TREES;GERMINATION;RAIN;DYNAMICS;DORMANCY;SIZE</t>
+          <t>PIONEER TREES; GERMINATION; RAIN; DYNAMICS; DORMANCY; SIZE</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -10758,12 +10758,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>canopy-height distributions;CARBONO Project;Costa Rica;forest;gaps;La Selva;landscape;old growth;recovery;tropical rain forest disturbance</t>
+          <t>canopy-height distributions; CARBONO Project; Costa Rica; forest; gaps; La Selva; landscape; old growth; recovery; tropical rain forest disturbance</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>BIOMASS ESTIMATION;MOIST FOREST;GAPS;RECRUITMENT;DIVERSITY;DYNAMICS;ECOLOGY;NETWORK;LIGHT;FIELD</t>
+          <t>BIOMASS ESTIMATION; MOIST FOREST; GAPS; RECRUITMENT; DIVERSITY; DYNAMICS; ECOLOGY; NETWORK; LIGHT; FIELD</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>disturbed forests;dry semi-deciduous forest;natural regeneration of tropical forest;forest restoration;soil seed bank</t>
+          <t>disturbed forests; dry semi-deciduous forest; natural regeneration of tropical forest; forest restoration; soil seed bank</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -10838,12 +10838,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Nepal;Spatial distribution;Disturbance ecology;Sal forests;Morisita index</t>
+          <t>Nepal; Spatial distribution; Disturbance ecology; Sal forests; Morisita index</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FORESTS;TREE DIVERSITY;PLANT DIVERSITY;ANTHROPOGENIC DISTURBANCE;POPULATION-STRUCTURE;SPECIES COMPOSITION;WESTERN-GHATS;RECRUITMENT;PREDATION;PATTERNS</t>
+          <t>TROPICAL RAIN-FORESTS; TREE DIVERSITY; PLANT DIVERSITY; ANTHROPOGENIC DISTURBANCE; POPULATION-STRUCTURE; SPECIES COMPOSITION; WESTERN-GHATS; RECRUITMENT; PREDATION; PATTERNS</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -10878,12 +10878,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Selective logging;Multi-scale analysis;Composition;Configuration;Disturbance profiles</t>
+          <t>Selective logging; Multi-scale analysis; Composition; Configuration; Disturbance profiles</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>TROPICAL FORESTS;RECOVERY;SCALE;CLASSIFICATION;CONSERVATION;REGENERATION;INTENSITY;IMPACT;MAP</t>
+          <t>TROPICAL FORESTS; RECOVERY; SCALE; CLASSIFICATION; CONSERVATION; REGENERATION; INTENSITY; IMPACT; MAP</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -10918,12 +10918,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Forest disturbance;Forest fragments;Forest regeneration;Tropical semideciduous forest</t>
+          <t>Forest disturbance; Forest fragments; Forest regeneration; Tropical semideciduous forest</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>TROPICAL SEMIDECIDUOUS FOREST;GAPS</t>
+          <t>TROPICAL SEMIDECIDUOUS FOREST; GAPS</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -10958,12 +10958,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Forest disturbances;Tropical forest;Amazon;Remote Sensing;Geographic Information System</t>
+          <t>Forest disturbances; Tropical forest; Amazon; Remote Sensing; Geographic Information System</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>BRAZILIAN AMAZON;DEFORESTATION;FOREST;IMPACTS;DEGRADATION;MANAGEMENT;DIVERSITY;LOCATION;FRONTIER;AREAS</t>
+          <t>BRAZILIAN AMAZON; DEFORESTATION; FOREST; IMPACTS; DEGRADATION; MANAGEMENT; DIVERSITY; LOCATION; FRONTIER; AREAS</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -10998,12 +10998,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Deforestation;Forest degradation;Hydroelectric dam;Spatiotemporal pattern;Amazon basin;Remote sensing;GIS;Statistical analysis</t>
+          <t>Deforestation; Forest degradation; Hydroelectric dam; Spatiotemporal pattern; Amazon basin; Remote sensing; GIS; Statistical analysis</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>COVER;DISTURBANCE;VEGETATION;RESERVOIR;IMPACTS;DECLINE;REGIONS</t>
+          <t>COVER; DISTURBANCE; VEGETATION; RESERVOIR; IMPACTS; DECLINE; REGIONS</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>GHG emissions;peat swamp forest;oil palm;peatland;methane;nitrous oxide;Indonesia;tropical</t>
+          <t>GHG emissions; peat swamp forest; oil palm; peatland; methane; nitrous oxide; Indonesia; tropical</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Lianas;Machaerium;Edge effect;Forest ecology;Forest fragmentation</t>
+          <t>Lianas; Machaerium; Edge effect; Forest ecology; Forest fragmentation</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>LIANA ABUNDANCE;TROPICAL FORESTS;PATTERNS;TREE;DIVERSITY;DYNAMICS;DISTURBANCE;DOMINANCE;RAINFALL;PROTOCOL</t>
+          <t>LIANA ABUNDANCE; TROPICAL FORESTS; PATTERNS; TREE; DIVERSITY; DYNAMICS; DISTURBANCE; DOMINANCE; RAINFALL; PROTOCOL</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11114,12 +11114,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>conservation;ferns;forest fragments;Kampala</t>
+          <t>conservation; ferns; forest fragments; Kampala</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;DIVERSITY;PTERIDOPHYTES</t>
+          <t>RAIN-FOREST; DIVERSITY; PTERIDOPHYTES</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11154,12 +11154,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Tropical trees;Ecophysiology;NPP;GPP;NEE;NEP;CO2;Stem respiration;Tree growth;Forest disturbance</t>
+          <t>Tropical trees; Ecophysiology; NPP; GPP; NEE; NEP; CO2; Stem respiration; Tree growth; Forest disturbance</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>CO2 EFFLUX;TROPICAL FORESTS;CARBON ASSIMILATION;DAYTIME DEPRESSION;EXTERNAL FLUXES;TREE;TRANSPORT;SAP;RESPONSES;BALANCE</t>
+          <t>CO2 EFFLUX; TROPICAL FORESTS; CARBON ASSIMILATION; DAYTIME DEPRESSION; EXTERNAL FLUXES; TREE; TRANSPORT; SAP; RESPONSES; BALANCE</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11194,12 +11194,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Cambodia;stand structure;disturbances;selective cutting;forest management</t>
+          <t>Cambodia; stand structure; disturbances; selective cutting; forest management</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST;REDUCED-IMPACT;RAIN-FOREST;KALIMANTAN;MANAGEMENT;SUCCESSION;BENZOIN;GARDENS</t>
+          <t>TROPICAL FOREST; REDUCED-IMPACT; RAIN-FOREST; KALIMANTAN; MANAGEMENT; SUCCESSION; BENZOIN; GARDENS</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -11234,12 +11234,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>BFAST monitor;Change detection;HLS data;Landsat-8/OLI;Random forest;Sentinel-2</t>
+          <t>BFAST monitor; Change detection; HLS data; Landsat-8/OLI; Random forest; Sentinel-2</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>TIME-SERIES;DEFORESTATION;COVER;RECOVERY;PROGRAM;IMAGERY;TRENDS;AMAZON;MODIS;WATER</t>
+          <t>TIME-SERIES; DEFORESTATION; COVER; RECOVERY; PROGRAM; IMAGERY; TRENDS; AMAZON; MODIS; WATER</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -11274,12 +11274,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Alnus acuminata;dendroecology;disturbances;montane forests;tropical ecology</t>
+          <t>Alnus acuminata; dendroecology; disturbances; montane forests; tropical ecology</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>TROPICAL TREES;SOUTH-AMERICA;GROWTH RINGS;REGENERATION;HISTORY;RIVER;AGE;VEGETATION;RAINFALL;PATTERNS</t>
+          <t>TROPICAL TREES; SOUTH-AMERICA; GROWTH RINGS; REGENERATION; HISTORY; RIVER; AGE; VEGETATION; RAINFALL; PATTERNS</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -11315,7 +11315,7 @@
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>LOGGED FORESTS;DEFORESTATION;GOVERNANCE</t>
+          <t>LOGGED FORESTS; DEFORESTATION; GOVERNANCE</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -11346,12 +11346,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Forest disturbance;Mesoamerica;Shelterwoods;Seed-tree;Selective logging;Tropical silviculture</t>
+          <t>Forest disturbance; Mesoamerica; Shelterwoods; Seed-tree; Selective logging; Tropical silviculture</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>MAHOGANY SWIETENIA-MACROPHYLLA;GAP-PHASE REGENERATION;DRY TROPICAL FOREST;PELTOGYNE-PURPUREA CAESALPINACEAE;LUQUILLO EXPERIMENTAL FOREST;LOWLAND SWAMP FOREST;HURRICANE HUGO;NEOTROPICAL FORESTS;SILVICULTURAL INTENSIFICATION;DEMOGRAPHIC-STRUCTURE</t>
+          <t>MAHOGANY SWIETENIA-MACROPHYLLA; GAP-PHASE REGENERATION; DRY TROPICAL FOREST; PELTOGYNE-PURPUREA CAESALPINACEAE; LUQUILLO EXPERIMENTAL FOREST; LOWLAND SWAMP FOREST; HURRICANE HUGO; NEOTROPICAL FORESTS; SILVICULTURAL INTENSIFICATION; DEMOGRAPHIC-STRUCTURE</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -11386,12 +11386,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Liana biomass;Quantitative structure models;Terrestrial laser scanning;Total forest biomass;Tropical forests</t>
+          <t>Liana biomass; Quantitative structure models; Terrestrial laser scanning; Total forest biomass; Tropical forests</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>BARRO-COLORADO-ISLAND;ABOVEGROUND BIOMASS;TROPICAL FOREST;TREE REGENERATION;ABUNDANCE;IMPACT;DISTURBANCE;DIVERSITY;EQUATIONS;DIAMETER</t>
+          <t>BARRO-COLORADO-ISLAND; ABOVEGROUND BIOMASS; TROPICAL FOREST; TREE REGENERATION; ABUNDANCE; IMPACT; DISTURBANCE; DIVERSITY; EQUATIONS; DIAMETER</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -11426,12 +11426,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Allometric relationships;Crown volume;Finite size scaling;Operationalization;Restoration strategies;Tree size distribution;Tropical ecology</t>
+          <t>Allometric relationships; Crown volume; Finite size scaling; Operationalization; Restoration strategies; Tree size distribution; Tropical ecology</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>TREE-SIZE DISTRIBUTIONS;CONSERVATION;ECOLOGY;DENSITY;WORLD;LAWS</t>
+          <t>TREE-SIZE DISTRIBUTIONS; CONSERVATION; ECOLOGY; DENSITY; WORLD; LAWS</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11466,12 +11466,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>BIOMASS;SAR;polarimetry;tomography;interferometry;forest height;forest disturbance;earth explorer;DTM</t>
+          <t>BIOMASS; SAR; polarimetry; tomography; interferometry; forest height; forest disturbance; earth explorer; DTM</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>FOREST CARBON STOCKS;SAR TOMOGRAPHY;RETRIEVAL;CALIBRATION;INVERSION;BENCHMARK;MISSION;SINGLE;SERIES</t>
+          <t>FOREST CARBON STOCKS; SAR TOMOGRAPHY; RETRIEVAL; CALIBRATION; INVERSION; BENCHMARK; MISSION; SINGLE; SERIES</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>BARRO COLORADO ISLAND;CANOPY GAP;FOREST DISTURBANCE;PANAMA;SECONDARY FOREST</t>
+          <t>BARRO COLORADO ISLAND; CANOPY GAP; FOREST DISTURBANCE; PANAMA; SECONDARY FOREST</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
@@ -11538,12 +11538,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Forest disturbance;Relative importance;Ethnobotany</t>
+          <t>Forest disturbance; Relative importance; Ethnobotany</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>MONTANE EVERGREEN FORESTS;TROPICAL FORESTS;RAIN-FOREST;COROMANDEL COAST;EASTERN GHATS;ABUNDANCE;ECOLOGY;DENSITY;TREES</t>
+          <t>MONTANE EVERGREEN FORESTS; TROPICAL FORESTS; RAIN-FOREST; COROMANDEL COAST; EASTERN GHATS; ABUNDANCE; ECOLOGY; DENSITY; TREES</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -11578,12 +11578,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Climbing guilds;Dispersal mode;Liana abundance;Natural patches;Shade tolerance;Species-area relationships</t>
+          <t>Climbing guilds; Dispersal mode; Liana abundance; Natural patches; Shade tolerance; Species-area relationships</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;EVERGREEN FORESTS;WESTERN-GHATS;VEGETATION STRUCTURE;ANTHROPOGENIC EDGES;NILGIRI MOUNTAINS;SEEDLING SURVIVAL;DIVERSITY;TREE;FRAGMENTATION</t>
+          <t>TROPICAL RAIN-FOREST; EVERGREEN FORESTS; WESTERN-GHATS; VEGETATION STRUCTURE; ANTHROPOGENIC EDGES; NILGIRI MOUNTAINS; SEEDLING SURVIVAL; DIVERSITY; TREE; FRAGMENTATION</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -11618,12 +11618,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>conservation;deforestation;Ecuador;palm ecology;montane rain forest</t>
+          <t>conservation; deforestation; Ecuador; palm ecology; montane rain forest</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>TROPICAL FORESTS;DIVERSITY;ECOLOGY</t>
+          <t>TROPICAL FORESTS; DIVERSITY; ECOLOGY</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -11658,12 +11658,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>C-correction;Landsat;LiDAR;NDVI;Reduced Simple Ratio;Tasseled Cap</t>
+          <t>C-correction; Landsat; LiDAR; NDVI; Reduced Simple Ratio; Tasseled Cap</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;SATELLITE DATA;CANOPY COVER;IMAGES;MODEL;IMPACTS;INDEX;LIDAR;SRTM;LAI</t>
+          <t>FOREST DISTURBANCE; SATELLITE DATA; CANOPY COVER; IMAGES; MODEL; IMPACTS; INDEX; LIDAR; SRTM; LAI</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11699,7 +11699,7 @@
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>SLC-OFF IMAGERY;TREND ANALYSIS;CARBON STOCKS;CLOUD;DEFORESTATION;DEGRADATION;EMISSIONS;MORTALITY;PRODUCTS;IMPACTS</t>
+          <t>SLC-OFF IMAGERY; TREND ANALYSIS; CARBON STOCKS; CLOUD; DEFORESTATION; DEGRADATION; EMISSIONS; MORTALITY; PRODUCTS; IMPACTS</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -11734,12 +11734,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Biomass;Forest height;Forest disturbance;Carbon cycle;Pol-InSAR;Polarimetry;Tomographic SAR;P-band SAR;Sub-surface imaging;Unbiased DTM;Icesheet and glacier motion;Ionospheric effects</t>
+          <t>Biomass; Forest height; Forest disturbance; Carbon cycle; Pol-InSAR; Polarimetry; Tomographic SAR; P-band SAR; Sub-surface imaging; Unbiased DTM; Icesheet and glacier motion; Ionospheric effects</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>GROWING STOCK VOLUME;TANDEM-X DATA;BOREAL FOREST;L-BAND;POL-INSAR;BACKSCATTER INTENSITY;HEIGHT ESTIMATION;TROPICAL FORESTS;CARBON-DENSITY;IMAGING RADAR</t>
+          <t>GROWING STOCK VOLUME; TANDEM-X DATA; BOREAL FOREST; L-BAND; POL-INSAR; BACKSCATTER INTENSITY; HEIGHT ESTIMATION; TROPICAL FORESTS; CARBON-DENSITY; IMAGING RADAR</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -11775,7 +11775,7 @@
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>LARGE-FOOTPRINT LIDAR;TROPICAL RAIN-FOREST;BIOMASS;MODEL;TOPOGRAPHY;LANDSCAPE</t>
+          <t>LARGE-FOOTPRINT LIDAR; TROPICAL RAIN-FOREST; BIOMASS; MODEL; TOPOGRAPHY; LANDSCAPE</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>disturbance events;treefall gaps;tree mortality;tree damage;re-sprouting;semideciduous forest</t>
+          <t>disturbance events; treefall gaps; tree mortality; tree damage; re-sprouting; semideciduous forest</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;MORTALITY;PATTERNS;DEATH;MOIST;REGENERATION;ISLAND</t>
+          <t>TROPICAL RAIN-FOREST; MORTALITY; PATTERNS; DEATH; MOIST; REGENERATION; ISLAND</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -11850,12 +11850,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Microclimate;Leaf area index;Land use change;Tropical forest;Disturbance;Oil palm</t>
+          <t>Microclimate; Leaf area index; Land use change; Tropical forest; Disturbance; Oil palm</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>RAIN-FOREST;TRANSPIRATION;LANDSCAPES;RESPONSES;FRACTION</t>
+          <t>RAIN-FOREST; TRANSPIRATION; LANDSCAPES; RESPONSES; FRACTION</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -11890,12 +11890,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>autocorrelation;disturbance gradient;forest management;spatial heterogeneity;secondary tropical forests</t>
+          <t>autocorrelation; disturbance gradient; forest management; spatial heterogeneity; secondary tropical forests</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>VASCULAR EPIPHYTES;LAND-USE;CLOUD FOREST;RAIN-FOREST;VEGETATION;DIVERSITY;COLONIZATION;PATTERNS;VERACRUZ;ECOLOGY</t>
+          <t>VASCULAR EPIPHYTES; LAND-USE; CLOUD FOREST; RAIN-FOREST; VEGETATION; DIVERSITY; COLONIZATION; PATTERNS; VERACRUZ; ECOLOGY</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -11930,12 +11930,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Fire management;fire regime;timber harvesting;fire reconstruction;disturbance agents</t>
+          <t>Fire management; fire regime; timber harvesting; fire reconstruction; disturbance agents</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>TREE RECRUITMENT;DISTURBANCE;MANAGEMENT;COLORADO;REGIMES;MOUNTAINS;ECOSYSTEM;ECOLOGY;HISTORY</t>
+          <t>TREE RECRUITMENT; DISTURBANCE; MANAGEMENT; COLORADO; REGIMES; MOUNTAINS; ECOSYSTEM; ECOLOGY; HISTORY</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -11970,12 +11970,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>biodiversity;trees;tropical forest;temperate forest;climate;biogeographical history;disturbance</t>
+          <t>biodiversity; trees; tropical forest; temperate forest; climate; biogeographical history; disturbance</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>EVERGREEN FOREST;GLOBAL PATTERNS;RAIN-FORESTS;DIVERSITY;PLOT;XISHUANGBANNA;CONSERVATION;PRODUCTIVITY;REGENERATION;VEGETATION</t>
+          <t>EVERGREEN FOREST; GLOBAL PATTERNS; RAIN-FORESTS; DIVERSITY; PLOT; XISHUANGBANNA; CONSERVATION; PRODUCTIVITY; REGENERATION; VEGETATION</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12010,12 +12010,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>carbon cycle;Amazonia;tree mortality;tropical forest;functional traits</t>
+          <t>carbon cycle; Amazonia; tree mortality; tropical forest; functional traits</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>TREE MORTALITY;CLIMATE-CHANGE;SAVANNA;THICKNESS;BIOMASS;VARIABILITY;STRATEGIES;INTENSITY;SURVIVAL;RAINFALL</t>
+          <t>TREE MORTALITY; CLIMATE-CHANGE; SAVANNA; THICKNESS; BIOMASS; VARIABILITY; STRATEGIES; INTENSITY; SURVIVAL; RAINFALL</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -12086,12 +12086,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>andisols;dissolved organic carbon;dissolved organic nitrogen;dissolved organic phosphorous;dissolved organic sulphur;Montane rainforest</t>
+          <t>andisols; dissolved organic carbon; dissolved organic nitrogen; dissolved organic phosphorous; dissolved organic sulphur; Montane rainforest</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>DISSOLVED ORGANIC NITROGEN;ANDISOLS FOLLOWING INVASION;TEMPERATE FORESTS;NUTRIENT FLUXES;CENTRAL AMAZON;DECIDUOUS FOREST;CLOUD FOREST;STREAM WATER;BRACKEN FERN;CLEAR-CUT</t>
+          <t>DISSOLVED ORGANIC NITROGEN; ANDISOLS FOLLOWING INVASION; TEMPERATE FORESTS; NUTRIENT FLUXES; CENTRAL AMAZON; DECIDUOUS FOREST; CLOUD FOREST; STREAM WATER; BRACKEN FERN; CLEAR-CUT</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -12126,12 +12126,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Forest monitoring;Forest mapping;Tropical deforestation;Landsat 8;Sentinel 1;Synthetic aperture radar;Supervised classification;Forest landscape restoration;Redd plus</t>
+          <t>Forest monitoring; Forest mapping; Tropical deforestation; Landsat 8; Sentinel 1; Synthetic aperture radar; Supervised classification; Forest landscape restoration; Redd plus</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>LAND-COVER;TIME-SERIES;DRY FORESTS;DEFORESTATION;CLASSIFICATION;DEGRADATION;PATTERNS;CLOUD;MAPS</t>
+          <t>LAND-COVER; TIME-SERIES; DRY FORESTS; DEFORESTATION; CLASSIFICATION; DEGRADATION; PATTERNS; CLOUD; MAPS</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -12166,12 +12166,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Forest disturbance;Small-scale clearing;Landsat and Sentinel-2;Deep learning;Downscaling</t>
+          <t>Forest disturbance; Small-scale clearing; Landsat and Sentinel-2; Deep learning; Downscaling</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>COVER;DEFORESTATION;PERSISTENT;RECOVERY;CONGO;MODIS;MAP</t>
+          <t>COVER; DEFORESTATION; PERSISTENT; RECOVERY; CONGO; MODIS; MAP</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -12206,12 +12206,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Amazon;degradation;El Nino;forest fires;logging</t>
+          <t>Amazon; degradation; El Nino; forest fires; logging</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;TROPICAL FORESTS;TREE MORTALITY;CARBON;SENSITIVITY;ABUNDANCE</t>
+          <t>ABOVEGROUND BIOMASS; TROPICAL FORESTS; TREE MORTALITY; CARBON; SENSITIVITY; ABUNDANCE</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12246,12 +12246,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>dendroecology;forest disturbance;regeneration failure;tree age distribution;tree regeneration;tree-rings;tropical forest</t>
+          <t>dendroecology; forest disturbance; regeneration failure; tree age distribution; tree regeneration; tree-rings; tropical forest</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>AFRICAN RAIN-FOREST;GROWTH;HISTORY;REGENERATION;MOIST;MORTALITY;DYNAMICS;DROUGHT;VIRGIN;IMPACTS</t>
+          <t>AFRICAN RAIN-FOREST; GROWTH; HISTORY; REGENERATION; MOIST; MORTALITY; DYNAMICS; DROUGHT; VIRGIN; IMPACTS</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>aboveground biomass;canopy turnover;carbon residence time;crown damage;forest disturbance;mortality;tropical forests</t>
+          <t>aboveground biomass; canopy turnover; carbon residence time; crown damage; forest disturbance; mortality; tropical forests</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>DYNAMIC VEGETATION MODEL;TEMPORAL VARIATION;HURRICANE HUGO;MORTALITY;ALLOCATION;DROUGHT;CLIMATE;GROWTH;PRODUCTIVITY;MECHANISMS</t>
+          <t>DYNAMIC VEGETATION MODEL; TEMPORAL VARIATION; HURRICANE HUGO; MORTALITY; ALLOCATION; DROUGHT; CLIMATE; GROWTH; PRODUCTIVITY; MECHANISMS</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -12326,12 +12326,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>basal area;conservation;disturbance;dry tropical forest;species diversity;species evenness</t>
+          <t>basal area; conservation; disturbance; dry tropical forest; species diversity; species evenness</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>DECIDUOUS FOREST;DYNAMICS;REGENERATION;RESTORATION;COMMUNITIES;MODELS</t>
+          <t>DECIDUOUS FOREST; DYNAMICS; REGENERATION; RESTORATION; COMMUNITIES; MODELS</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -12366,12 +12366,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Dispersal mode;ecological guild;forest disturbance;tree size class</t>
+          <t>Dispersal mode; ecological guild; forest disturbance; tree size class</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>SPECIES COMPOSITION;COROMANDEL COAST;WESTERN-GHATS;RAIN-FORESTS;ANTHROPOGENIC DISTURBANCE;POPULATION-STRUCTURE;FRUITING PHENOLOGY;DECIDUOUS FOREST;DISPERSAL MODES;ECOLOGY</t>
+          <t>SPECIES COMPOSITION; COROMANDEL COAST; WESTERN-GHATS; RAIN-FORESTS; ANTHROPOGENIC DISTURBANCE; POPULATION-STRUCTURE; FRUITING PHENOLOGY; DECIDUOUS FOREST; DISPERSAL MODES; ECOLOGY</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -12402,12 +12402,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Dendroecology;Disturbances;Growth release;Ecology;Forestry;Global change</t>
+          <t>Dendroecology; Disturbances; Growth release; Ecology; Forestry; Global change</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>DIFFERENT THINNING INTENSITIES;TROPICAL RAIN-FOREST;FAGUS-SYLVATICA L.;CANOPY DISTURBANCE;PICEA-ABIES;GROWTH RELEASES;DENDROECOLOGICAL RECONSTRUCTIONS;INFREQUENT DISTURBANCES;TEMPERATE FOREST;TYPHOON ACTIVITY</t>
+          <t>DIFFERENT THINNING INTENSITIES; TROPICAL RAIN-FOREST; FAGUS-SYLVATICA L.; CANOPY DISTURBANCE; PICEA-ABIES; GROWTH RELEASES; DENDROECOLOGICAL RECONSTRUCTIONS; INFREQUENT DISTURBANCES; TEMPERATE FOREST; TYPHOON ACTIVITY</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -12442,12 +12442,12 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CULTIVATION;FOSSIL POLLEN;HOLOCENE;HUNTING;NEOTROPICAL;PANAMA;RAIN FOREST;ZEA MAYS</t>
+          <t>CULTIVATION; FOSSIL POLLEN; HOLOCENE; HUNTING; NEOTROPICAL; PANAMA; RAIN FOREST; ZEA MAYS</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>WESTERN AMAZON BASIN;POLLEN RECORD;RAIN-FOREST;DIVERSITY;NEOTROPICS;OCCUPATION;HISTORY;LAKE</t>
+          <t>WESTERN AMAZON BASIN; POLLEN RECORD; RAIN-FOREST; DIVERSITY; NEOTROPICS; OCCUPATION; HISTORY; LAKE</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -12482,12 +12482,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Hainan Island;forest disturbances;LandTrendr;Google Earth engine</t>
+          <t>Hainan Island; forest disturbances; LandTrendr; Google Earth engine</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>TEMPORAL PATTERNS;TREE MORTALITY;BARK BEETLE;LANDSAT;RECOVERY;CHINA;CLASSIFICATION;SEGMENTATION;PLANTATIONS;SENTINEL-2A</t>
+          <t>TEMPORAL PATTERNS; TREE MORTALITY; BARK BEETLE; LANDSAT; RECOVERY; CHINA; CLASSIFICATION; SEGMENTATION; PLANTATIONS; SENTINEL-2A</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -12523,7 +12523,7 @@
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>LAND-USE;CARBON EMISSIONS;DEFORESTATION;DEGRADATION;FIRE;CONSERVATION;DYNAMICS;REGION;MAP</t>
+          <t>LAND-USE; CARBON EMISSIONS; DEFORESTATION; DEGRADATION; FIRE; CONSERVATION; DYNAMICS; REGION; MAP</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -12558,12 +12558,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>compound disturbance;linked disturbance;feedback effects;resilience;forest landscape model (FLM);landscape legacy;cross-scale interaction (CSI)</t>
+          <t>compound disturbance; linked disturbance; feedback effects; resilience; forest landscape model (FLM); landscape legacy; cross-scale interaction (CSI)</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>MOUNTAIN PINE-BEETLE;CROSS-SCALE INTERACTIONS;MACHINE-LEARNING-METHODS;CLIMATE-CHANGE IMPACTS;LAND-USE;SPATIALLY EXPLICIT;ECOLOGICAL MEMORY;SPRUCE BUDWORM;TREE MORTALITY;LODGEPOLE PINE</t>
+          <t>MOUNTAIN PINE-BEETLE; CROSS-SCALE INTERACTIONS; MACHINE-LEARNING-METHODS; CLIMATE-CHANGE IMPACTS; LAND-USE; SPATIALLY EXPLICIT; ECOLOGICAL MEMORY; SPRUCE BUDWORM; TREE MORTALITY; LODGEPOLE PINE</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -12598,12 +12598,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Carbon cycle;Tropical trees;Allocation;Forest disturbance;Functional diversity</t>
+          <t>Carbon cycle; Tropical trees; Allocation; Forest disturbance; Functional diversity</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>NET PRIMARY PRODUCTION;CENTRAL AMAZON;CONSTANT FRACTION;WATER-USE;SAP FLUX;RESPIRATION;TRANSPIRATION;PRODUCTIVITY;PLANTATIONS;TEMPERATURE</t>
+          <t>NET PRIMARY PRODUCTION; CENTRAL AMAZON; CONSTANT FRACTION; WATER-USE; SAP FLUX; RESPIRATION; TRANSPIRATION; PRODUCTIVITY; PLANTATIONS; TEMPERATURE</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -12638,12 +12638,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>forest disturbance;remote sensing;landsat;forest ecology</t>
+          <t>forest disturbance; remote sensing; landsat; forest ecology</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>TROPICAL DEFORESTATION;NORTH-AMERICA;CLIMATE;BIODIVERSITY;SIMULATION;STRATEGIES;INVENTORY;PROSPECTS;PATTERNS;AMAZON</t>
+          <t>TROPICAL DEFORESTATION; NORTH-AMERICA; CLIMATE; BIODIVERSITY; SIMULATION; STRATEGIES; INVENTORY; PROSPECTS; PATTERNS; AMAZON</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -12678,12 +12678,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>airborne LiDAR;annual repeated LiDAR;canopy growth;forest disturbance;canopy structure;change detection</t>
+          <t>airborne LiDAR; annual repeated LiDAR; canopy growth; forest disturbance; canopy structure; change detection</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>LEAF-AREA INDEX;MULTITEMPORAL LIDAR;TREE HEIGHT;INVENTORY ATTRIBUTES;BROADLEAVED FOREST;TROPICAL FORESTS;CANOPY STRUCTURE;LASER SCANNER;DEGRADATION;METRICS</t>
+          <t>LEAF-AREA INDEX; MULTITEMPORAL LIDAR; TREE HEIGHT; INVENTORY ATTRIBUTES; BROADLEAVED FOREST; TROPICAL FORESTS; CANOPY STRUCTURE; LASER SCANNER; DEGRADATION; METRICS</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -12719,7 +12719,7 @@
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>TROPICAL DEFORESTATION;DYNAMICS;LANDSCAPE;PATTERNS;REFORESTATION;DISTURBANCE;HISTORY</t>
+          <t>TROPICAL DEFORESTATION; DYNAMICS; LANDSCAPE; PATTERNS; REFORESTATION; DISTURBANCE; HISTORY</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -12754,12 +12754,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>forest;disturbance;monitoring;Earth Observation;Sentinel;SAR;Gabon;Peru;FNF mapping;change detection</t>
+          <t>forest; disturbance; monitoring; Earth Observation; Sentinel; SAR; Gabon; Peru; FNF mapping; change detection</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>ALOS PALSAR;DETECTING TRENDS;CLOUD SHADOW;LANDSAT DATA;COVER;DEFORESTATION;BIOMASS;AREA;ACCURACY;SATELLITE</t>
+          <t>ALOS PALSAR; DETECTING TRENDS; CLOUD SHADOW; LANDSAT DATA; COVER; DEFORESTATION; BIOMASS; AREA; ACCURACY; SATELLITE</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12794,12 +12794,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>carbon model;data assimilation;deforestation;degradation;land-use change;miombo;Mozambique;REDD;synthetic aperture radar</t>
+          <t>carbon model; data assimilation; deforestation; degradation; land-use change; miombo; Mozambique; REDD; synthetic aperture radar</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>CARBON STOCKS;MODEL;EMISSIONS;CLIMATE;DEFORESTATION;WOODLANDS;WORLDS;CYCLE;SAR</t>
+          <t>CARBON STOCKS; MODEL; EMISSIONS; CLIMATE; DEFORESTATION; WOODLANDS; WORLDS; CYCLE; SAR</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12834,12 +12834,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>GLAS;Hurricane Katrina;Lidar;ICESat;Forest disturbance</t>
+          <t>GLAS; Hurricane Katrina; Lidar; ICESat; Forest disturbance</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;VERTICAL STRUCTURE;LIDAR DATA;HEIGHT;VEGETATION;FOOTPRINT;IMPACTS;MODELS;MODIS</t>
+          <t>ABOVEGROUND BIOMASS; VERTICAL STRUCTURE; LIDAR DATA; HEIGHT; VEGETATION; FOOTPRINT; IMPACTS; MODELS; MODIS</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -12874,12 +12874,12 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Landsat;selective logging;time series;tropics</t>
+          <t>Landsat; selective logging; time series; tropics</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>KABAUNG RESERVED FOREST;BAGO MOUNTAINS;CANOPY DAMAGE;DRY FOREST;COVER LOSS;DEFORESTATION;DEGRADATION;AREA;CAPACITIES;RECOVERY</t>
+          <t>KABAUNG RESERVED FOREST; BAGO MOUNTAINS; CANOPY DAMAGE; DRY FOREST; COVER LOSS; DEFORESTATION; DEGRADATION; AREA; CAPACITIES; RECOVERY</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -12914,12 +12914,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>forest structure;forest typology;null model;pattern and process;rain forest;correlation;ordination</t>
+          <t>forest structure; forest typology; null model; pattern and process; rain forest; correlation; ordination</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS;DIVERSITY</t>
+          <t>ABOVEGROUND BIOMASS; DIVERSITY</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12954,12 +12954,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Landsat;Deforestation;Spatial context;Seasonality;Seasonal model</t>
+          <t>Landsat; Deforestation; Spatial context; Seasonality; Seasonal model</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>MONITORING STRUCTURAL-CHANGE;FOREST DISTURBANCE;BRAZILIAN AMAZON;TRENDS;CLASSIFICATION;COVER;CLOUD</t>
+          <t>MONITORING STRUCTURAL-CHANGE; FOREST DISTURBANCE; BRAZILIAN AMAZON; TRENDS; CLASSIFICATION; COVER; CLOUD</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -12994,12 +12994,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Accuracy;Error matrix;Probability sampling;Thiessen scene area;Terrestrial Globe;Biomes</t>
+          <t>Accuracy; Error matrix; Probability sampling; Thiessen scene area; Terrestrial Globe; Biomes</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE;DETECTING TRENDS;MODIS;ALGORITHM</t>
+          <t>FOREST DISTURBANCE; DETECTING TRENDS; MODIS; ALGORITHM</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -13034,12 +13034,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Brazil;forest disturbance;forest fragments;forest regeneration;regeneration guilds;dispersal guilds;tropical semideciduous forest</t>
+          <t>Brazil; forest disturbance; forest fragments; forest regeneration; regeneration guilds; dispersal guilds; tropical semideciduous forest</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>SUCCESSION FOLLOWING SLASH;ABANDONED PASTURES;SECONDARY SUCCESSION;EASTERN AMAZONIA;BURN AGRICULTURE;RAIN-FOREST;GROWTH;SOIL;DYNAMICS;PATTERNS</t>
+          <t>SUCCESSION FOLLOWING SLASH; ABANDONED PASTURES; SECONDARY SUCCESSION; EASTERN AMAZONIA; BURN AGRICULTURE; RAIN-FOREST; GROWTH; SOIL; DYNAMICS; PATTERNS</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -13074,12 +13074,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Sinarundinaria alpina;East African mountains;forest disturbance by herbivores;tropical montane forest;vegetation zones</t>
+          <t>Sinarundinaria alpina; East African mountains; forest disturbance by herbivores; tropical montane forest; vegetation zones</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>SOUTHERN SLOPES;MT. KILIMANJARO;MONTANE FOREST;PTERIDOPHYTES;BIODIVERSITY;ECOLOGY</t>
+          <t>SOUTHERN SLOPES; MT. KILIMANJARO; MONTANE FOREST; PTERIDOPHYTES; BIODIVERSITY; ECOLOGY</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -13114,12 +13114,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Evapotranspiration;forest suppression;hydraulic constraints;range limits;tree height</t>
+          <t>Evapotranspiration; forest suppression; hydraulic constraints; range limits; tree height</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RESOURCE LIMITATIONS MODEL;TREE HEIGHT;TROPICAL SAVANNAS;SITE QUALITY;GROWTH;AUSTRALIA;BIODIVERSITY;PATTERNS;GRADIENT;RAINFALL</t>
+          <t>RESOURCE LIMITATIONS MODEL; TREE HEIGHT; TROPICAL SAVANNAS; SITE QUALITY; GROWTH; AUSTRALIA; BIODIVERSITY; PATTERNS; GRADIENT; RAINFALL</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -13154,12 +13154,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Cloud water interception;Evapotranspiration;Streamflow;Volcanic soils;Leakage;Catchments</t>
+          <t>Cloud water interception; Evapotranspiration; Streamflow; Volcanic soils; Leakage; Catchments</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST;LUQUILLO EXPERIMENTAL FOREST;CANOPY CONDUCTANCE;SAP FLOW;SECONDARY VEGETATION;ABANDONED PASTURES;SMALL CATCHMENTS;FOG-DRIP;INTERCEPTION;TRANSPIRATION</t>
+          <t>TROPICAL RAIN-FOREST; LUQUILLO EXPERIMENTAL FOREST; CANOPY CONDUCTANCE; SAP FLOW; SECONDARY VEGETATION; ABANDONED PASTURES; SMALL CATCHMENTS; FOG-DRIP; INTERCEPTION; TRANSPIRATION</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -13194,12 +13194,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Dendroecology;Hyper-abundant lianas;Tree-rings anatomy;Tropical forest;X-ray densitometry</t>
+          <t>Dendroecology; Hyper-abundant lianas; Tree-rings anatomy; Tropical forest; X-ray densitometry</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>AMAZONIAN FOREST FRAGMENTS;VAR. HONDURENSIS BARR.;TEAK TECTONA-GRANDIS;WOOD-DENSITY;RADIAL VARIATION;COLORADO ISLAND;DIAMETER GROWTH;TROPICAL TREES;NORWAY SPRUCE;PATTERNS</t>
+          <t>AMAZONIAN FOREST FRAGMENTS; VAR. HONDURENSIS BARR.; TEAK TECTONA-GRANDIS; WOOD-DENSITY; RADIAL VARIATION; COLORADO ISLAND; DIAMETER GROWTH; TROPICAL TREES; NORWAY SPRUCE; PATTERNS</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -13234,12 +13234,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>certification;Coffea arabica;coffee yield;conservation;forest disturbance;ordination</t>
+          <t>certification; Coffea arabica; coffee yield; conservation; forest disturbance; ordination</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>REGENERATION;RESOURCES;ARABICA;UGANDA</t>
+          <t>REGENERATION; RESOURCES; ARABICA; UGANDA</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -13274,12 +13274,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>wind damage;wind-throw;uprooting;forest disturbance;Nothofagus;edaphic conditions;topography;sprouting;recruitment;release;forest dieback</t>
+          <t>wind damage; wind-throw; uprooting; forest disturbance; Nothofagus; edaphic conditions; topography; sprouting; recruitment; release; forest dieback</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>TONGARIRO-NATIONAL-PARK;CENTRAL NORTH-ISLAND;NOTHOFAGUS FORESTS;TROPICAL CYCLONES;HURRICANE DISTURBANCE;CATASTROPHIC WIND;SOUTHWEST PACIFIC;RAIN-FOREST;DYNAMICS;VEGETATION</t>
+          <t>TONGARIRO-NATIONAL-PARK; CENTRAL NORTH-ISLAND; NOTHOFAGUS FORESTS; TROPICAL CYCLONES; HURRICANE DISTURBANCE; CATASTROPHIC WIND; SOUTHWEST PACIFIC; RAIN-FOREST; DYNAMICS; VEGETATION</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -13310,12 +13310,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>disturbance regime;windthrow;tree mortality;topography;forest recovery;ecosystem resilience</t>
+          <t>disturbance regime; windthrow; tree mortality; topography; forest recovery; ecosystem resilience</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>NATURAL DISTURBANCE;TYPHOON DISTURBANCE;FUNCTIONAL TRAITS;TREE MORTALITY;RAIN-FORESTS;LAND-USE;DAMAGE;HURRICANES;IMPACTS;CARBON</t>
+          <t>NATURAL DISTURBANCE; TYPHOON DISTURBANCE; FUNCTIONAL TRAITS; TREE MORTALITY; RAIN-FORESTS; LAND-USE; DAMAGE; HURRICANES; IMPACTS; CARBON</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -13350,12 +13350,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>forest disturbance;priority conservation areas;species range;species diversity;tree inventories;tropical forest conservation;wood density</t>
+          <t>forest disturbance; priority conservation areas; species range; species diversity; tree inventories; tropical forest conservation; wood density</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>TREE SPECIES COMPOSITION;RAIN-FOREST;DIPTEROCARP FORESTS;CENTRAL-AMERICA;EL-NINO;DIVERSITY;BORNEO;KALIMANTAN;INDONESIA;FIRE</t>
+          <t>TREE SPECIES COMPOSITION; RAIN-FOREST; DIPTEROCARP FORESTS; CENTRAL-AMERICA; EL-NINO; DIVERSITY; BORNEO; KALIMANTAN; INDONESIA; FIRE</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
